--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -25,11 +25,11 @@
     <definedName name="hosthabitat">'cv_sample'!$AI$1:$AI$7</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$V$1:$V$14</definedName>
     <definedName name="hostsex">'cv_sample'!$W$1:$W$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="samplecapturestatus">'cv_sample'!$Q$1:$Q$7</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="650">
   <si>
     <t>alias</t>
   </si>
@@ -457,6 +457,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -556,6 +568,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -673,6 +703,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -680,6 +713,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2490,10 +2526,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2534,10 +2570,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2564,7 +2600,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,7 +2620,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2601,7 +2637,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2618,7 +2654,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2635,7 +2671,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2652,7 +2688,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2669,7 +2705,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2686,7 +2722,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2703,7 +2739,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2720,7 +2756,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2734,7 +2770,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2748,7 +2784,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2762,7 +2798,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2776,7 +2812,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2786,8 +2822,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2797,8 +2836,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2808,8 +2850,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2819,8 +2864,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2831,7 +2879,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2842,7 +2890,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2853,7 +2901,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2864,7 +2912,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2875,7 +2923,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2886,7 +2934,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2897,7 +2945,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2908,7 +2956,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2919,7 +2967,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2930,7 +2978,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2941,7 +2989,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2952,7 +3000,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2963,7 +3011,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2974,7 +3022,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2982,7 +3030,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2990,7 +3038,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2998,7 +3046,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3006,7 +3054,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3014,7 +3062,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3022,7 +3070,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3030,7 +3078,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3038,7 +3086,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3046,7 +3094,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3054,176 +3102,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3248,27 +3336,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3291,122 +3379,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3433,240 +3521,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -3710,74 +3798,74 @@
   <sheetData>
     <row r="1" spans="9:39">
       <c r="I1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="Q1" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="R1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="V1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="W1" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="AI1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AM1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="9:39">
       <c r="I2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="M2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="Q2" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="R2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="V2" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="W2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AI2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AM2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="9:39">
       <c r="M3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="Q3" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="R3" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="V3" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="W3" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="AI3" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AM3" t="s">
         <v>116</v>
@@ -3785,36 +3873,36 @@
     </row>
     <row r="4" spans="9:39">
       <c r="M4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="Q4" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="V4" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="W4" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="AI4" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AM4" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="9:39">
       <c r="M5" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q5" t="s">
         <v>116</v>
       </c>
       <c r="V5" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="W5" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="AI5" t="s">
         <v>116</v>
@@ -3822,126 +3910,126 @@
     </row>
     <row r="6" spans="9:39">
       <c r="M6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q6" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="V6" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="W6" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="AI6" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="9:39">
       <c r="M7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="Q7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="V7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="W7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="AI7" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="9:39">
       <c r="M8" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="V8" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="W8" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="9:39">
       <c r="M9" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="V9" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="W9" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="9:39">
       <c r="M10" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="V10" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="W10" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="9:39">
       <c r="M11" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="V11" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="W11" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="9:39">
       <c r="M12" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="V12" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="W12" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="9:39">
       <c r="M13" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="V13" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="W13" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="9:39">
       <c r="M14" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="V14" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="W14" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="9:39">
       <c r="M15" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="W15" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="9:39">
       <c r="M16" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="W16" t="s">
         <v>116</v>
@@ -3949,1360 +4037,1360 @@
     </row>
     <row r="17" spans="13:23">
       <c r="M17" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W17" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="13:23">
       <c r="M18" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="13:23">
       <c r="M19" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="13:23">
       <c r="M20" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="13:23">
       <c r="M21" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="13:23">
       <c r="M22" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="13:23">
       <c r="M23" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="13:23">
       <c r="M24" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="13:23">
       <c r="M25" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="13:23">
       <c r="M26" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="13:23">
       <c r="M27" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="13:23">
       <c r="M28" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="13:23">
       <c r="M29" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="13:23">
       <c r="M30" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="13:23">
       <c r="M31" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="13:23">
       <c r="M32" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="13:13">
       <c r="M33" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="13:13">
       <c r="M34" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="13:13">
       <c r="M35" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="13:13">
       <c r="M36" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="13:13">
       <c r="M37" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="13:13">
       <c r="M38" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="13:13">
       <c r="M39" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="13:13">
       <c r="M40" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="13:13">
       <c r="M41" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="13:13">
       <c r="M42" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="13:13">
       <c r="M43" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="13:13">
       <c r="M44" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="13:13">
       <c r="M45" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="13:13">
       <c r="M46" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="13:13">
       <c r="M47" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="13:13">
       <c r="M48" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="13:13">
       <c r="M49" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="13:13">
       <c r="M50" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="13:13">
       <c r="M51" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="13:13">
       <c r="M52" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="13:13">
       <c r="M53" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="13:13">
       <c r="M54" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="13:13">
       <c r="M55" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="13:13">
       <c r="M56" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="13:13">
       <c r="M57" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="13:13">
       <c r="M58" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="13:13">
       <c r="M65" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="13:13">
       <c r="M66" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67" spans="13:13">
       <c r="M67" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="13:13">
       <c r="M68" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="13:13">
       <c r="M69" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="13:13">
       <c r="M70" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="13:13">
       <c r="M71" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="13:13">
       <c r="M72" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="13:13">
       <c r="M73" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="13:13">
       <c r="M74" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="13:13">
       <c r="M75" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="13:13">
       <c r="M76" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="13:13">
       <c r="M77" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="13:13">
       <c r="M78" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="13:13">
       <c r="M79" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="13:13">
       <c r="M80" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="13:13">
       <c r="M81" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="13:13">
       <c r="M82" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="13:13">
       <c r="M83" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="13:13">
       <c r="M84" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="13:13">
       <c r="M85" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="13:13">
       <c r="M86" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="13:13">
       <c r="M87" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="13:13">
       <c r="M88" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="13:13">
       <c r="M89" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="13:13">
       <c r="M90" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="13:13">
       <c r="M91" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="13:13">
       <c r="M92" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="13:13">
       <c r="M93" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="13:13">
       <c r="M94" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="13:13">
       <c r="M95" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="13:13">
       <c r="M96" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="13:13">
       <c r="M97" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="13:13">
       <c r="M98" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="13:13">
       <c r="M99" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="13:13">
       <c r="M100" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="13:13">
       <c r="M101" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="13:13">
       <c r="M102" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="13:13">
       <c r="M103" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="13:13">
       <c r="M104" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="13:13">
       <c r="M105" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="13:13">
       <c r="M106" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="13:13">
       <c r="M107" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="13:13">
       <c r="M108" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="13:13">
       <c r="M109" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="13:13">
       <c r="M110" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="13:13">
       <c r="M111" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="13:13">
       <c r="M112" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="13:13">
       <c r="M113" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="13:13">
       <c r="M114" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="13:13">
       <c r="M115" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="116" spans="13:13">
       <c r="M116" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="13:13">
       <c r="M117" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="13:13">
       <c r="M118" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="13:13">
       <c r="M119" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="13:13">
       <c r="M120" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="13:13">
       <c r="M121" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="13:13">
       <c r="M122" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="13:13">
       <c r="M123" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="13:13">
       <c r="M124" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="13:13">
       <c r="M125" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="13:13">
       <c r="M126" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="13:13">
       <c r="M127" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="13:13">
       <c r="M128" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="13:13">
       <c r="M129" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="13:13">
       <c r="M130" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="13:13">
       <c r="M131" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="13:13">
       <c r="M132" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="13:13">
       <c r="M133" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134" spans="13:13">
       <c r="M134" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="13:13">
       <c r="M135" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="13:13">
       <c r="M136" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" spans="13:13">
       <c r="M137" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="13:13">
       <c r="M138" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="13:13">
       <c r="M139" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="13:13">
       <c r="M140" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="13:13">
       <c r="M141" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="13:13">
       <c r="M142" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143" spans="13:13">
       <c r="M143" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="13:13">
       <c r="M144" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145" spans="13:13">
       <c r="M145" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="13:13">
       <c r="M146" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="147" spans="13:13">
       <c r="M147" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="13:13">
       <c r="M148" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="13:13">
       <c r="M149" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="13:13">
       <c r="M150" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="13:13">
       <c r="M151" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="13:13">
       <c r="M152" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="13:13">
       <c r="M153" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="13:13">
       <c r="M154" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="155" spans="13:13">
       <c r="M155" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="156" spans="13:13">
       <c r="M156" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="157" spans="13:13">
       <c r="M157" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158" spans="13:13">
       <c r="M158" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="13:13">
       <c r="M159" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" spans="13:13">
       <c r="M160" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="13:13">
       <c r="M161" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="162" spans="13:13">
       <c r="M162" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="163" spans="13:13">
       <c r="M163" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="13:13">
       <c r="M164" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="13:13">
       <c r="M165" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="13:13">
       <c r="M166" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="13:13">
       <c r="M167" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="13:13">
       <c r="M168" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169" spans="13:13">
       <c r="M169" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="13:13">
       <c r="M170" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="171" spans="13:13">
       <c r="M171" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="13:13">
       <c r="M172" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="13:13">
       <c r="M173" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="174" spans="13:13">
       <c r="M174" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="175" spans="13:13">
       <c r="M175" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="176" spans="13:13">
       <c r="M176" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="177" spans="13:13">
       <c r="M177" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="178" spans="13:13">
       <c r="M178" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="179" spans="13:13">
       <c r="M179" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180" spans="13:13">
       <c r="M180" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181" spans="13:13">
       <c r="M181" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="13:13">
       <c r="M182" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="13:13">
       <c r="M183" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="13:13">
       <c r="M184" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="13:13">
       <c r="M185" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="186" spans="13:13">
       <c r="M186" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="187" spans="13:13">
       <c r="M187" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="188" spans="13:13">
       <c r="M188" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="189" spans="13:13">
       <c r="M189" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="190" spans="13:13">
       <c r="M190" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" spans="13:13">
       <c r="M191" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="192" spans="13:13">
       <c r="M192" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="193" spans="13:13">
       <c r="M193" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="194" spans="13:13">
       <c r="M194" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="195" spans="13:13">
       <c r="M195" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="196" spans="13:13">
       <c r="M196" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="197" spans="13:13">
       <c r="M197" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="198" spans="13:13">
       <c r="M198" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="199" spans="13:13">
       <c r="M199" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="200" spans="13:13">
       <c r="M200" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="201" spans="13:13">
       <c r="M201" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="202" spans="13:13">
       <c r="M202" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="203" spans="13:13">
       <c r="M203" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="204" spans="13:13">
       <c r="M204" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205" spans="13:13">
       <c r="M205" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="206" spans="13:13">
       <c r="M206" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="207" spans="13:13">
       <c r="M207" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="208" spans="13:13">
       <c r="M208" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="209" spans="13:13">
       <c r="M209" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="210" spans="13:13">
       <c r="M210" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="13:13">
       <c r="M211" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="212" spans="13:13">
       <c r="M212" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="13:13">
       <c r="M213" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="214" spans="13:13">
       <c r="M214" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="13:13">
       <c r="M215" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="13:13">
       <c r="M216" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="217" spans="13:13">
       <c r="M217" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="13:13">
       <c r="M218" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="219" spans="13:13">
       <c r="M219" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="220" spans="13:13">
       <c r="M220" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="221" spans="13:13">
       <c r="M221" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="13:13">
       <c r="M222" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="13:13">
       <c r="M223" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="13:13">
       <c r="M224" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="13:13">
       <c r="M225" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="226" spans="13:13">
       <c r="M226" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="227" spans="13:13">
       <c r="M227" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="228" spans="13:13">
       <c r="M228" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="229" spans="13:13">
       <c r="M229" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="230" spans="13:13">
       <c r="M230" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="231" spans="13:13">
       <c r="M231" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="232" spans="13:13">
       <c r="M232" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="233" spans="13:13">
       <c r="M233" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="234" spans="13:13">
       <c r="M234" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="13:13">
       <c r="M235" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="236" spans="13:13">
       <c r="M236" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="237" spans="13:13">
       <c r="M237" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="238" spans="13:13">
       <c r="M238" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="239" spans="13:13">
       <c r="M239" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="240" spans="13:13">
       <c r="M240" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="241" spans="13:13">
       <c r="M241" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="242" spans="13:13">
       <c r="M242" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="243" spans="13:13">
       <c r="M243" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="244" spans="13:13">
       <c r="M244" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="245" spans="13:13">
       <c r="M245" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="246" spans="13:13">
       <c r="M246" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" spans="13:13">
       <c r="M247" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="248" spans="13:13">
       <c r="M248" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="249" spans="13:13">
       <c r="M249" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="250" spans="13:13">
       <c r="M250" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="251" spans="13:13">
       <c r="M251" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="252" spans="13:13">
       <c r="M252" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="253" spans="13:13">
       <c r="M253" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="254" spans="13:13">
       <c r="M254" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="255" spans="13:13">
       <c r="M255" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="256" spans="13:13">
       <c r="M256" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="257" spans="13:13">
       <c r="M257" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="258" spans="13:13">
       <c r="M258" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="259" spans="13:13">
       <c r="M259" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="260" spans="13:13">
       <c r="M260" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="261" spans="13:13">
       <c r="M261" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="262" spans="13:13">
       <c r="M262" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="263" spans="13:13">
       <c r="M263" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="264" spans="13:13">
       <c r="M264" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="265" spans="13:13">
       <c r="M265" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="13:13">
       <c r="M266" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="13:13">
       <c r="M267" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="268" spans="13:13">
       <c r="M268" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="269" spans="13:13">
       <c r="M269" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="270" spans="13:13">
       <c r="M270" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="271" spans="13:13">
       <c r="M271" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="13:13">
       <c r="M272" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="273" spans="13:13">
       <c r="M273" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="274" spans="13:13">
       <c r="M274" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="275" spans="13:13">
       <c r="M275" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="276" spans="13:13">
       <c r="M276" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="277" spans="13:13">
       <c r="M277" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="278" spans="13:13">
       <c r="M278" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="279" spans="13:13">
       <c r="M279" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" spans="13:13">
       <c r="M280" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="281" spans="13:13">
       <c r="M281" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="282" spans="13:13">
       <c r="M282" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="13:13">
       <c r="M283" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="284" spans="13:13">
       <c r="M284" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="285" spans="13:13">
       <c r="M285" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="286" spans="13:13">
       <c r="M286" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="287" spans="13:13">
       <c r="M287" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -1759,15 +1759,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1830,8 +1828,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees Units: 
-                    </t>
+    <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
     <t>diseased</t>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -106,7 +106,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -18,19 +18,19 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$287</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$288</definedName>
     <definedName name="hospitalisation">'cv_sample'!$I$1:$I$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$AM$1:$AM$4</definedName>
-    <definedName name="hostdiseaseoutcome">'cv_sample'!$R$1:$R$3</definedName>
+    <definedName name="hostdiseaseoutcome">'cv_sample'!$S$1:$S$3</definedName>
     <definedName name="hosthabitat">'cv_sample'!$AI$1:$AI$7</definedName>
-    <definedName name="hosthealthstate">'cv_sample'!$V$1:$V$14</definedName>
-    <definedName name="hostsex">'cv_sample'!$W$1:$W$17</definedName>
+    <definedName name="hosthealthstate">'cv_sample'!$W$1:$W$14</definedName>
+    <definedName name="hostsex">'cv_sample'!$X$1:$X$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplecapturestatus">'cv_sample'!$Q$1:$Q$7</definedName>
+    <definedName name="samplecapturestatus">'cv_sample'!$R$1:$R$7</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="651">
   <si>
     <t>alias</t>
   </si>
@@ -835,943 +835,952 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
+    <t>sample storage conditions</t>
+  </si>
+  <si>
+    <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
+  </si>
+  <si>
     <t>subject exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
   </si>
   <si>
+    <t>type exposure</t>
+  </si>
+  <si>
+    <t>(Optional) Setting within which the subject is exposed to animals, such as farm, slaughterhouse, food preparation. if multiple exposures are applicable, please state their type in the same order in which you reported the exposure in the field 'subject exposure'. example: backyard flock; confined animal feeding operation</t>
+  </si>
+  <si>
+    <t>personal protective equipment</t>
+  </si>
+  <si>
+    <t>(Optional) Use of personal protective equipment, such as gloves, gowns, during any type of exposure. example: mask</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>hospitalisation</t>
+  </si>
+  <si>
+    <t>(Optional) Was the subject confined to a hospital as a result of virus infection or problems occurring secondary to virus infection?</t>
+  </si>
+  <si>
+    <t>illness duration</t>
+  </si>
+  <si>
+    <t>(Optional) The number of days the illness lasted. example: 4</t>
+  </si>
+  <si>
+    <t>illness symptoms</t>
+  </si>
+  <si>
+    <t>(Optional) The symptoms that have been reported in relation to the illness, such as cough, diarrhea, fever, headache, malaise, myalgia, nausea, runny_nose, shortness_of_breath, sore_throat. if multiple exposures are applicable, please state them separated by semicolon.</t>
+  </si>
+  <si>
+    <t>collection date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic location (country and/or sea)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days</t>
-  </si>
-  <si>
-    <t>type exposure</t>
-  </si>
-  <si>
-    <t>(Optional) Setting within which the subject is exposed to animals, such as farm, slaughterhouse, food preparation. if multiple exposures are applicable, please state their type in the same order in which you reported the exposure in the field 'subject exposure'. example: backyard flock; confined animal feeding operation</t>
-  </si>
-  <si>
-    <t>personal protective equipment</t>
-  </si>
-  <si>
-    <t>(Optional) Use of personal protective equipment, such as gloves, gowns, during any type of exposure. example: mask</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hospitalisation</t>
-  </si>
-  <si>
-    <t>(Optional) Was the subject confined to a hospital as a result of virus infection or problems occurring secondary to virus infection?</t>
-  </si>
-  <si>
-    <t>illness duration</t>
-  </si>
-  <si>
-    <t>(Optional) The number of days the illness lasted. example: 4</t>
-  </si>
-  <si>
-    <t>illness symptoms</t>
-  </si>
-  <si>
-    <t>(Optional) The symptoms that have been reported in relation to the illness, such as cough, diarrhea, fever, headache, malaise, myalgia, nausea, runny_nose, shortness_of_breath, sore_throat. if multiple exposures are applicable, please state them separated by semicolon.</t>
-  </si>
-  <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
   </si>
   <si>
     <t>active surveillance in response to outbreak</t>
@@ -1895,12 +1904,6 @@
   </si>
   <si>
     <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
-  </si>
-  <si>
-    <t>sample storage conditions</t>
-  </si>
-  <si>
-    <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location</t>
   </si>
   <si>
     <t>definition for seropositive sample</t>
@@ -3548,88 +3551,88 @@
         <v>281</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
@@ -3670,88 +3673,88 @@
         <v>282</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -3762,16 +3765,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
       <formula1>samplecapturestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>hostdiseaseoutcome</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
       <formula1>hosthealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
       <formula1>hostsex</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
@@ -3787,7 +3790,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:AM287"/>
+  <dimension ref="I1:AM288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3800,23 +3803,23 @@
       <c r="M1" t="s">
         <v>283</v>
       </c>
-      <c r="Q1" t="s">
-        <v>578</v>
-      </c>
       <c r="R1" t="s">
-        <v>586</v>
-      </c>
-      <c r="V1" t="s">
-        <v>597</v>
+        <v>581</v>
+      </c>
+      <c r="S1" t="s">
+        <v>589</v>
       </c>
       <c r="W1" t="s">
-        <v>601</v>
+        <v>600</v>
+      </c>
+      <c r="X1" t="s">
+        <v>604</v>
       </c>
       <c r="AI1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AM1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="9:39">
@@ -3826,43 +3829,43 @@
       <c r="M2" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" t="s">
-        <v>579</v>
-      </c>
       <c r="R2" t="s">
-        <v>587</v>
-      </c>
-      <c r="V2" t="s">
-        <v>598</v>
+        <v>582</v>
+      </c>
+      <c r="S2" t="s">
+        <v>590</v>
       </c>
       <c r="W2" t="s">
-        <v>602</v>
+        <v>601</v>
+      </c>
+      <c r="X2" t="s">
+        <v>605</v>
       </c>
       <c r="AI2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AM2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="9:39">
       <c r="M3" t="s">
         <v>285</v>
       </c>
-      <c r="Q3" t="s">
-        <v>580</v>
-      </c>
       <c r="R3" t="s">
-        <v>588</v>
-      </c>
-      <c r="V3" t="s">
-        <v>558</v>
+        <v>583</v>
+      </c>
+      <c r="S3" t="s">
+        <v>591</v>
       </c>
       <c r="W3" t="s">
-        <v>603</v>
+        <v>559</v>
+      </c>
+      <c r="X3" t="s">
+        <v>606</v>
       </c>
       <c r="AI3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM3" t="s">
         <v>116</v>
@@ -3872,34 +3875,34 @@
       <c r="M4" t="s">
         <v>286</v>
       </c>
-      <c r="Q4" t="s">
-        <v>581</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="R4" t="s">
+        <v>584</v>
+      </c>
+      <c r="W4" t="s">
+        <v>560</v>
+      </c>
+      <c r="X4" t="s">
         <v>559</v>
       </c>
-      <c r="W4" t="s">
-        <v>558</v>
-      </c>
       <c r="AI4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AM4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="9:39">
       <c r="M5" t="s">
         <v>287</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>116</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
+        <v>561</v>
+      </c>
+      <c r="X5" t="s">
         <v>560</v>
-      </c>
-      <c r="W5" t="s">
-        <v>559</v>
       </c>
       <c r="AI5" t="s">
         <v>116</v>
@@ -3909,208 +3912,208 @@
       <c r="M6" t="s">
         <v>288</v>
       </c>
-      <c r="Q6" t="s">
-        <v>582</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="R6" t="s">
+        <v>585</v>
+      </c>
+      <c r="W6" t="s">
+        <v>562</v>
+      </c>
+      <c r="X6" t="s">
         <v>561</v>
       </c>
-      <c r="W6" t="s">
-        <v>560</v>
-      </c>
       <c r="AI6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="9:39">
       <c r="M7" t="s">
         <v>289</v>
       </c>
-      <c r="Q7" t="s">
-        <v>583</v>
-      </c>
-      <c r="V7" t="s">
+      <c r="R7" t="s">
+        <v>586</v>
+      </c>
+      <c r="W7" t="s">
+        <v>563</v>
+      </c>
+      <c r="X7" t="s">
         <v>562</v>
       </c>
-      <c r="W7" t="s">
-        <v>561</v>
-      </c>
       <c r="AI7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="8" spans="9:39">
       <c r="M8" t="s">
         <v>290</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
+        <v>564</v>
+      </c>
+      <c r="X8" t="s">
         <v>563</v>
-      </c>
-      <c r="W8" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="9" spans="9:39">
       <c r="M9" t="s">
         <v>291</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
+        <v>565</v>
+      </c>
+      <c r="X9" t="s">
         <v>564</v>
-      </c>
-      <c r="W9" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="10" spans="9:39">
       <c r="M10" t="s">
         <v>292</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
+        <v>566</v>
+      </c>
+      <c r="X10" t="s">
         <v>565</v>
-      </c>
-      <c r="W10" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="11" spans="9:39">
       <c r="M11" t="s">
         <v>293</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
+        <v>567</v>
+      </c>
+      <c r="X11" t="s">
         <v>566</v>
-      </c>
-      <c r="W11" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="12" spans="9:39">
       <c r="M12" t="s">
         <v>294</v>
       </c>
-      <c r="V12" t="s">
-        <v>567</v>
-      </c>
       <c r="W12" t="s">
-        <v>604</v>
+        <v>568</v>
+      </c>
+      <c r="X12" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="9:39">
       <c r="M13" t="s">
         <v>295</v>
       </c>
-      <c r="V13" t="s">
-        <v>568</v>
-      </c>
       <c r="W13" t="s">
-        <v>566</v>
+        <v>569</v>
+      </c>
+      <c r="X13" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="9:39">
       <c r="M14" t="s">
         <v>296</v>
       </c>
-      <c r="V14" t="s">
-        <v>569</v>
-      </c>
       <c r="W14" t="s">
-        <v>567</v>
+        <v>570</v>
+      </c>
+      <c r="X14" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="9:39">
       <c r="M15" t="s">
         <v>297</v>
       </c>
-      <c r="W15" t="s">
-        <v>568</v>
+      <c r="X15" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="9:39">
       <c r="M16" t="s">
         <v>298</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="13:23">
+    <row r="17" spans="13:24">
       <c r="M17" t="s">
         <v>299</v>
       </c>
-      <c r="W17" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="18" spans="13:23">
+      <c r="X17" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="13:24">
       <c r="M18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="13:23">
+    <row r="19" spans="13:24">
       <c r="M19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="20" spans="13:23">
+    <row r="20" spans="13:24">
       <c r="M20" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="13:23">
+    <row r="21" spans="13:24">
       <c r="M21" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="22" spans="13:23">
+    <row r="22" spans="13:24">
       <c r="M22" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="13:23">
+    <row r="23" spans="13:24">
       <c r="M23" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="13:23">
+    <row r="24" spans="13:24">
       <c r="M24" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="13:23">
+    <row r="25" spans="13:24">
       <c r="M25" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="13:23">
+    <row r="26" spans="13:24">
       <c r="M26" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="13:23">
+    <row r="27" spans="13:24">
       <c r="M27" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="13:23">
+    <row r="28" spans="13:24">
       <c r="M28" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="13:23">
+    <row r="29" spans="13:24">
       <c r="M29" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="13:23">
+    <row r="30" spans="13:24">
       <c r="M30" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="13:23">
+    <row r="31" spans="13:24">
       <c r="M31" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="13:23">
+    <row r="32" spans="13:24">
       <c r="M32" t="s">
         <v>314</v>
       </c>
@@ -5388,6 +5391,11 @@
     <row r="287" spans="13:13">
       <c r="M287" t="s">
         <v>569</v>
+      </c>
+    </row>
+    <row r="288" spans="13:13">
+      <c r="M288" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -1081,10 +1081,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="652">
   <si>
     <t>alias</t>
   </si>
@@ -818,6 +818,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3521,240 +3524,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -3798,74 +3801,74 @@
   <sheetData>
     <row r="1" spans="9:39">
       <c r="I1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="S1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="X1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AI1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AM1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="9:39">
       <c r="I2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="S2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="X2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AI2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="9:39">
       <c r="M3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="S3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="X3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AI3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AM3" t="s">
         <v>116</v>
@@ -3873,36 +3876,36 @@
     </row>
     <row r="4" spans="9:39">
       <c r="M4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="W4" t="s">
+        <v>561</v>
+      </c>
+      <c r="X4" t="s">
         <v>560</v>
       </c>
-      <c r="X4" t="s">
-        <v>559</v>
-      </c>
       <c r="AI4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="9:39">
       <c r="M5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R5" t="s">
         <v>116</v>
       </c>
       <c r="W5" t="s">
+        <v>562</v>
+      </c>
+      <c r="X5" t="s">
         <v>561</v>
-      </c>
-      <c r="X5" t="s">
-        <v>560</v>
       </c>
       <c r="AI5" t="s">
         <v>116</v>
@@ -3910,126 +3913,126 @@
     </row>
     <row r="6" spans="9:39">
       <c r="M6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="W6" t="s">
+        <v>563</v>
+      </c>
+      <c r="X6" t="s">
         <v>562</v>
       </c>
-      <c r="X6" t="s">
-        <v>561</v>
-      </c>
       <c r="AI6" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="9:39">
       <c r="M7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="W7" t="s">
+        <v>564</v>
+      </c>
+      <c r="X7" t="s">
         <v>563</v>
       </c>
-      <c r="X7" t="s">
-        <v>562</v>
-      </c>
       <c r="AI7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="9:39">
       <c r="M8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W8" t="s">
+        <v>565</v>
+      </c>
+      <c r="X8" t="s">
         <v>564</v>
-      </c>
-      <c r="X8" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="9" spans="9:39">
       <c r="M9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="W9" t="s">
+        <v>566</v>
+      </c>
+      <c r="X9" t="s">
         <v>565</v>
-      </c>
-      <c r="X9" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="10" spans="9:39">
       <c r="M10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="W10" t="s">
+        <v>567</v>
+      </c>
+      <c r="X10" t="s">
         <v>566</v>
-      </c>
-      <c r="X10" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="11" spans="9:39">
       <c r="M11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="W11" t="s">
+        <v>568</v>
+      </c>
+      <c r="X11" t="s">
         <v>567</v>
-      </c>
-      <c r="X11" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="12" spans="9:39">
       <c r="M12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="W12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="X12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="9:39">
       <c r="M13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="X13" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="9:39">
       <c r="M14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W14" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="X14" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="9:39">
       <c r="M15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="X15" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="9:39">
       <c r="M16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X16" t="s">
         <v>116</v>
@@ -4037,1365 +4040,1365 @@
     </row>
     <row r="17" spans="13:24">
       <c r="M17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="13:24">
       <c r="M18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="13:24">
       <c r="M19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="13:24">
       <c r="M20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="13:24">
       <c r="M21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="13:24">
       <c r="M22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="13:24">
       <c r="M23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="13:24">
       <c r="M24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="13:24">
       <c r="M25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="13:24">
       <c r="M26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="13:24">
       <c r="M27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="13:24">
       <c r="M28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="13:24">
       <c r="M29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="13:24">
       <c r="M30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="13:24">
       <c r="M31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="13:24">
       <c r="M32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="13:13">
       <c r="M33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="13:13">
       <c r="M34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="13:13">
       <c r="M35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="13:13">
       <c r="M36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="13:13">
       <c r="M37" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="13:13">
       <c r="M38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="13:13">
       <c r="M39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="13:13">
       <c r="M40" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="13:13">
       <c r="M41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="13:13">
       <c r="M42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="13:13">
       <c r="M43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="13:13">
       <c r="M44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="13:13">
       <c r="M45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="13:13">
       <c r="M46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="13:13">
       <c r="M47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="13:13">
       <c r="M48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="13:13">
       <c r="M49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="13:13">
       <c r="M50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="13:13">
       <c r="M51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="13:13">
       <c r="M52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="13:13">
       <c r="M53" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="13:13">
       <c r="M54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="13:13">
       <c r="M55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="13:13">
       <c r="M56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="13:13">
       <c r="M57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="13:13">
       <c r="M58" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="13:13">
       <c r="M65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="13:13">
       <c r="M66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="13:13">
       <c r="M67" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="13:13">
       <c r="M68" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="13:13">
       <c r="M69" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="13:13">
       <c r="M70" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="13:13">
       <c r="M71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="13:13">
       <c r="M72" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="13:13">
       <c r="M73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="13:13">
       <c r="M74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="13:13">
       <c r="M75" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="13:13">
       <c r="M76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="13:13">
       <c r="M77" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="13:13">
       <c r="M78" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="13:13">
       <c r="M79" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="13:13">
       <c r="M80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="13:13">
       <c r="M81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="13:13">
       <c r="M82" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="13:13">
       <c r="M83" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="13:13">
       <c r="M84" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="13:13">
       <c r="M85" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="13:13">
       <c r="M86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="13:13">
       <c r="M87" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="13:13">
       <c r="M88" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="13:13">
       <c r="M89" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="13:13">
       <c r="M90" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="13:13">
       <c r="M91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="13:13">
       <c r="M92" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="13:13">
       <c r="M93" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="13:13">
       <c r="M94" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="13:13">
       <c r="M95" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="13:13">
       <c r="M96" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="13:13">
       <c r="M97" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="13:13">
       <c r="M98" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="13:13">
       <c r="M99" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="13:13">
       <c r="M100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="13:13">
       <c r="M101" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="13:13">
       <c r="M102" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="13:13">
       <c r="M103" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="13:13">
       <c r="M104" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="13:13">
       <c r="M105" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="13:13">
       <c r="M106" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="13:13">
       <c r="M107" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="13:13">
       <c r="M108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="13:13">
       <c r="M109" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="13:13">
       <c r="M110" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="13:13">
       <c r="M111" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="13:13">
       <c r="M112" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" spans="13:13">
       <c r="M113" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" spans="13:13">
       <c r="M114" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115" spans="13:13">
       <c r="M115" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116" spans="13:13">
       <c r="M116" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="13:13">
       <c r="M117" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="13:13">
       <c r="M118" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="13:13">
       <c r="M119" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="13:13">
       <c r="M120" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="13:13">
       <c r="M121" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="13:13">
       <c r="M122" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="13:13">
       <c r="M123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="13:13">
       <c r="M124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="13:13">
       <c r="M125" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="13:13">
       <c r="M126" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="13:13">
       <c r="M127" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="13:13">
       <c r="M128" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="13:13">
       <c r="M129" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="13:13">
       <c r="M130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="13:13">
       <c r="M131" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="13:13">
       <c r="M132" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="13:13">
       <c r="M133" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="13:13">
       <c r="M134" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="135" spans="13:13">
       <c r="M135" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="13:13">
       <c r="M136" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="13:13">
       <c r="M137" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="13:13">
       <c r="M138" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="13:13">
       <c r="M139" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="13:13">
       <c r="M140" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" spans="13:13">
       <c r="M141" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="142" spans="13:13">
       <c r="M142" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="13:13">
       <c r="M143" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" spans="13:13">
       <c r="M144" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" spans="13:13">
       <c r="M145" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="13:13">
       <c r="M146" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="13:13">
       <c r="M147" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="13:13">
       <c r="M148" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" spans="13:13">
       <c r="M149" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="150" spans="13:13">
       <c r="M150" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="151" spans="13:13">
       <c r="M151" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="13:13">
       <c r="M152" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" spans="13:13">
       <c r="M153" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="13:13">
       <c r="M154" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" spans="13:13">
       <c r="M155" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="156" spans="13:13">
       <c r="M156" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="157" spans="13:13">
       <c r="M157" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="13:13">
       <c r="M158" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="13:13">
       <c r="M159" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="13:13">
       <c r="M160" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="13:13">
       <c r="M161" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="13:13">
       <c r="M162" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="163" spans="13:13">
       <c r="M163" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="164" spans="13:13">
       <c r="M164" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="165" spans="13:13">
       <c r="M165" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="166" spans="13:13">
       <c r="M166" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="167" spans="13:13">
       <c r="M167" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="168" spans="13:13">
       <c r="M168" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="169" spans="13:13">
       <c r="M169" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="13:13">
       <c r="M170" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="171" spans="13:13">
       <c r="M171" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="172" spans="13:13">
       <c r="M172" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="13:13">
       <c r="M173" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="13:13">
       <c r="M174" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="13:13">
       <c r="M175" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="176" spans="13:13">
       <c r="M176" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="177" spans="13:13">
       <c r="M177" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="13:13">
       <c r="M178" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="179" spans="13:13">
       <c r="M179" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="180" spans="13:13">
       <c r="M180" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="181" spans="13:13">
       <c r="M181" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="182" spans="13:13">
       <c r="M182" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="183" spans="13:13">
       <c r="M183" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="184" spans="13:13">
       <c r="M184" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="13:13">
       <c r="M185" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186" spans="13:13">
       <c r="M186" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="187" spans="13:13">
       <c r="M187" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="188" spans="13:13">
       <c r="M188" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="189" spans="13:13">
       <c r="M189" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="190" spans="13:13">
       <c r="M190" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="191" spans="13:13">
       <c r="M191" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192" spans="13:13">
       <c r="M192" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="13:13">
       <c r="M193" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="194" spans="13:13">
       <c r="M194" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="195" spans="13:13">
       <c r="M195" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="196" spans="13:13">
       <c r="M196" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="197" spans="13:13">
       <c r="M197" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="198" spans="13:13">
       <c r="M198" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="199" spans="13:13">
       <c r="M199" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" spans="13:13">
       <c r="M200" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="201" spans="13:13">
       <c r="M201" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="13:13">
       <c r="M202" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203" spans="13:13">
       <c r="M203" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="13:13">
       <c r="M204" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="205" spans="13:13">
       <c r="M205" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="206" spans="13:13">
       <c r="M206" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="13:13">
       <c r="M207" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="13:13">
       <c r="M208" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="13:13">
       <c r="M209" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" spans="13:13">
       <c r="M210" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="211" spans="13:13">
       <c r="M211" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="13:13">
       <c r="M212" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="213" spans="13:13">
       <c r="M213" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="214" spans="13:13">
       <c r="M214" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="215" spans="13:13">
       <c r="M215" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="216" spans="13:13">
       <c r="M216" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="13:13">
       <c r="M217" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="13:13">
       <c r="M218" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="219" spans="13:13">
       <c r="M219" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="13:13">
       <c r="M220" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="221" spans="13:13">
       <c r="M221" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="222" spans="13:13">
       <c r="M222" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="223" spans="13:13">
       <c r="M223" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="224" spans="13:13">
       <c r="M224" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="225" spans="13:13">
       <c r="M225" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="226" spans="13:13">
       <c r="M226" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="227" spans="13:13">
       <c r="M227" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228" spans="13:13">
       <c r="M228" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="229" spans="13:13">
       <c r="M229" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="230" spans="13:13">
       <c r="M230" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="231" spans="13:13">
       <c r="M231" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="232" spans="13:13">
       <c r="M232" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="233" spans="13:13">
       <c r="M233" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="234" spans="13:13">
       <c r="M234" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="235" spans="13:13">
       <c r="M235" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="236" spans="13:13">
       <c r="M236" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="237" spans="13:13">
       <c r="M237" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="238" spans="13:13">
       <c r="M238" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="239" spans="13:13">
       <c r="M239" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="240" spans="13:13">
       <c r="M240" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="241" spans="13:13">
       <c r="M241" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="242" spans="13:13">
       <c r="M242" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="243" spans="13:13">
       <c r="M243" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="244" spans="13:13">
       <c r="M244" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="245" spans="13:13">
       <c r="M245" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="246" spans="13:13">
       <c r="M246" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="247" spans="13:13">
       <c r="M247" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" spans="13:13">
       <c r="M248" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="249" spans="13:13">
       <c r="M249" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="250" spans="13:13">
       <c r="M250" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="251" spans="13:13">
       <c r="M251" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="252" spans="13:13">
       <c r="M252" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="253" spans="13:13">
       <c r="M253" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="254" spans="13:13">
       <c r="M254" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="255" spans="13:13">
       <c r="M255" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="256" spans="13:13">
       <c r="M256" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="257" spans="13:13">
       <c r="M257" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="258" spans="13:13">
       <c r="M258" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="259" spans="13:13">
       <c r="M259" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="260" spans="13:13">
       <c r="M260" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="261" spans="13:13">
       <c r="M261" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="262" spans="13:13">
       <c r="M262" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="263" spans="13:13">
       <c r="M263" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="264" spans="13:13">
       <c r="M264" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="265" spans="13:13">
       <c r="M265" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="13:13">
       <c r="M266" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="267" spans="13:13">
       <c r="M267" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="268" spans="13:13">
       <c r="M268" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="269" spans="13:13">
       <c r="M269" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="270" spans="13:13">
       <c r="M270" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="271" spans="13:13">
       <c r="M271" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="272" spans="13:13">
       <c r="M272" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="273" spans="13:13">
       <c r="M273" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="274" spans="13:13">
       <c r="M274" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="275" spans="13:13">
       <c r="M275" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="276" spans="13:13">
       <c r="M276" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="277" spans="13:13">
       <c r="M277" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="278" spans="13:13">
       <c r="M278" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="279" spans="13:13">
       <c r="M279" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="280" spans="13:13">
       <c r="M280" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="281" spans="13:13">
       <c r="M281" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="282" spans="13:13">
       <c r="M282" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="283" spans="13:13">
       <c r="M283" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="284" spans="13:13">
       <c r="M284" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="285" spans="13:13">
       <c r="M285" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="286" spans="13:13">
       <c r="M286" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="287" spans="13:13">
       <c r="M287" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="288" spans="13:13">
       <c r="M288" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -118,7 +118,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -136,7 +136,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$R$1:$R$289</definedName>
     <definedName name="hospitalisation">'cv_sample'!$I$1:$I$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$AM$1:$AM$4</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$S$1:$S$3</definedName>
@@ -30,7 +30,7 @@
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplecapturestatus">'cv_sample'!$R$1:$R$7</definedName>
+    <definedName name="samplecapturestatus">'cv_sample'!$Q$1:$Q$7</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="653">
   <si>
     <t>alias</t>
   </si>
@@ -892,6 +892,54 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>subject exposure duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+  </si>
+  <si>
+    <t>active surveillance in response to outbreak</t>
+  </si>
+  <si>
+    <t>active surveillance not initiated by an outbreak</t>
+  </si>
+  <si>
+    <t>farm sample</t>
+  </si>
+  <si>
+    <t>market sample</t>
+  </si>
+  <si>
+    <t>pet sample</t>
+  </si>
+  <si>
+    <t>zoo sample</t>
+  </si>
+  <si>
+    <t>sample capture status</t>
+  </si>
+  <si>
+    <t>(Recommended) Reason for the sample collection.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1720,6 +1768,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1760,54 +1811,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>subject exposure duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
-  </si>
-  <si>
-    <t>active surveillance in response to outbreak</t>
-  </si>
-  <si>
-    <t>active surveillance not initiated by an outbreak</t>
-  </si>
-  <si>
-    <t>farm sample</t>
-  </si>
-  <si>
-    <t>market sample</t>
-  </si>
-  <si>
-    <t>pet sample</t>
-  </si>
-  <si>
-    <t>zoo sample</t>
-  </si>
-  <si>
-    <t>sample capture status</t>
-  </si>
-  <si>
-    <t>(Recommended) Reason for the sample collection.</t>
   </si>
   <si>
     <t>dead</t>
@@ -3554,88 +3557,88 @@
         <v>282</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>572</v>
+        <v>284</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>574</v>
+        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>576</v>
+        <v>288</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>578</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>580</v>
+        <v>298</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
@@ -3676,88 +3679,88 @@
         <v>283</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>573</v>
+        <v>285</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>575</v>
+        <v>287</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>577</v>
+        <v>289</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>579</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>581</v>
+        <v>299</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -3765,11 +3768,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
       <formula1>hospitalisation</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
-      <formula1>geographiclocationcountryandorsea</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
+      <formula1>samplecapturestatus</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
-      <formula1>samplecapturestatus</formula1>
+      <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>hostdiseaseoutcome</formula1>
@@ -3793,7 +3796,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:AM288"/>
+  <dimension ref="I1:AM289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3803,1602 +3806,1607 @@
       <c r="I1" t="s">
         <v>274</v>
       </c>
-      <c r="M1" t="s">
-        <v>284</v>
+      <c r="Q1" t="s">
+        <v>292</v>
       </c>
       <c r="R1" t="s">
-        <v>582</v>
+        <v>300</v>
       </c>
       <c r="S1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="X1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AI1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="9:39">
       <c r="I2" t="s">
         <v>275</v>
       </c>
-      <c r="M2" t="s">
-        <v>285</v>
+      <c r="Q2" t="s">
+        <v>293</v>
       </c>
       <c r="R2" t="s">
-        <v>583</v>
+        <v>301</v>
       </c>
       <c r="S2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="X2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AI2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AM2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="9:39">
-      <c r="M3" t="s">
-        <v>286</v>
+      <c r="Q3" t="s">
+        <v>294</v>
       </c>
       <c r="R3" t="s">
-        <v>584</v>
+        <v>302</v>
       </c>
       <c r="S3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W3" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="X3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AI3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="9:39">
-      <c r="M4" t="s">
-        <v>287</v>
+      <c r="Q4" t="s">
+        <v>295</v>
       </c>
       <c r="R4" t="s">
-        <v>585</v>
+        <v>303</v>
       </c>
       <c r="W4" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="X4" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="AI4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AM4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5" spans="9:39">
-      <c r="M5" t="s">
-        <v>288</v>
+      <c r="Q5" t="s">
+        <v>116</v>
       </c>
       <c r="R5" t="s">
-        <v>116</v>
+        <v>304</v>
       </c>
       <c r="W5" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="X5" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="AI5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="6" spans="9:39">
-      <c r="M6" t="s">
-        <v>289</v>
+      <c r="Q6" t="s">
+        <v>296</v>
       </c>
       <c r="R6" t="s">
+        <v>305</v>
+      </c>
+      <c r="W6" t="s">
+        <v>580</v>
+      </c>
+      <c r="X6" t="s">
+        <v>579</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="9:39">
+      <c r="Q7" t="s">
+        <v>297</v>
+      </c>
+      <c r="R7" t="s">
+        <v>306</v>
+      </c>
+      <c r="W7" t="s">
+        <v>581</v>
+      </c>
+      <c r="X7" t="s">
+        <v>580</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" spans="9:39">
+      <c r="R8" t="s">
+        <v>307</v>
+      </c>
+      <c r="W8" t="s">
+        <v>582</v>
+      </c>
+      <c r="X8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="9:39">
+      <c r="R9" t="s">
+        <v>308</v>
+      </c>
+      <c r="W9" t="s">
+        <v>583</v>
+      </c>
+      <c r="X9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="9:39">
+      <c r="R10" t="s">
+        <v>309</v>
+      </c>
+      <c r="W10" t="s">
+        <v>584</v>
+      </c>
+      <c r="X10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11" spans="9:39">
+      <c r="R11" t="s">
+        <v>310</v>
+      </c>
+      <c r="W11" t="s">
+        <v>585</v>
+      </c>
+      <c r="X11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="9:39">
+      <c r="R12" t="s">
+        <v>311</v>
+      </c>
+      <c r="W12" t="s">
         <v>586</v>
       </c>
-      <c r="W6" t="s">
-        <v>563</v>
-      </c>
-      <c r="X6" t="s">
-        <v>562</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="7" spans="9:39">
-      <c r="M7" t="s">
-        <v>290</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="X12" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="13" spans="9:39">
+      <c r="R13" t="s">
+        <v>312</v>
+      </c>
+      <c r="W13" t="s">
         <v>587</v>
       </c>
-      <c r="W7" t="s">
-        <v>564</v>
-      </c>
-      <c r="X7" t="s">
-        <v>563</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="8" spans="9:39">
-      <c r="M8" t="s">
-        <v>291</v>
-      </c>
-      <c r="W8" t="s">
-        <v>565</v>
-      </c>
-      <c r="X8" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="9" spans="9:39">
-      <c r="M9" t="s">
-        <v>292</v>
-      </c>
-      <c r="W9" t="s">
-        <v>566</v>
-      </c>
-      <c r="X9" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="10" spans="9:39">
-      <c r="M10" t="s">
-        <v>293</v>
-      </c>
-      <c r="W10" t="s">
-        <v>567</v>
-      </c>
-      <c r="X10" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="11" spans="9:39">
-      <c r="M11" t="s">
-        <v>294</v>
-      </c>
-      <c r="W11" t="s">
-        <v>568</v>
-      </c>
-      <c r="X11" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="12" spans="9:39">
-      <c r="M12" t="s">
-        <v>295</v>
-      </c>
-      <c r="W12" t="s">
-        <v>569</v>
-      </c>
-      <c r="X12" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="13" spans="9:39">
-      <c r="M13" t="s">
-        <v>296</v>
-      </c>
-      <c r="W13" t="s">
-        <v>570</v>
-      </c>
       <c r="X13" t="s">
-        <v>568</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="9:39">
-      <c r="M14" t="s">
-        <v>297</v>
+      <c r="R14" t="s">
+        <v>313</v>
       </c>
       <c r="W14" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="X14" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="9:39">
-      <c r="M15" t="s">
-        <v>298</v>
+      <c r="R15" t="s">
+        <v>314</v>
       </c>
       <c r="X15" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
     </row>
     <row r="16" spans="9:39">
-      <c r="M16" t="s">
-        <v>299</v>
+      <c r="R16" t="s">
+        <v>315</v>
       </c>
       <c r="X16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="13:24">
-      <c r="M17" t="s">
-        <v>300</v>
+    <row r="17" spans="18:24">
+      <c r="R17" t="s">
+        <v>316</v>
       </c>
       <c r="X17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="18:24">
+      <c r="R18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="18:24">
+      <c r="R19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="18:24">
+      <c r="R20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="18:24">
+      <c r="R21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="18:24">
+      <c r="R22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="18:24">
+      <c r="R23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="18:24">
+      <c r="R24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="18:24">
+      <c r="R25" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="18:24">
+      <c r="R26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="18:24">
+      <c r="R27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="18:24">
+      <c r="R28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="18:24">
+      <c r="R29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="18:24">
+      <c r="R30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="18:24">
+      <c r="R31" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="18:24">
+      <c r="R32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="18:18">
+      <c r="R33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="18:18">
+      <c r="R34" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="18:18">
+      <c r="R35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="18:18">
+      <c r="R36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="18:18">
+      <c r="R37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="18:18">
+      <c r="R38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="18:18">
+      <c r="R39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="40" spans="18:18">
+      <c r="R40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" spans="18:18">
+      <c r="R41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="18:18">
+      <c r="R42" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="18:18">
+      <c r="R43" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="44" spans="18:18">
+      <c r="R44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="18:18">
+      <c r="R45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="18:18">
+      <c r="R46" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="18:18">
+      <c r="R47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="18:18">
+      <c r="R48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="18:18">
+      <c r="R49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="18:18">
+      <c r="R50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="18:18">
+      <c r="R51" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="18:18">
+      <c r="R52" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="18:18">
+      <c r="R53" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="54" spans="18:18">
+      <c r="R54" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55" spans="18:18">
+      <c r="R55" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56" spans="18:18">
+      <c r="R56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="18:18">
+      <c r="R57" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="18:18">
+      <c r="R58" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="18:18">
+      <c r="R59" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="18:18">
+      <c r="R60" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="18:18">
+      <c r="R61" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="18:18">
+      <c r="R62" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="18:18">
+      <c r="R63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64" spans="18:18">
+      <c r="R64" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="65" spans="18:18">
+      <c r="R65" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="18:18">
+      <c r="R66" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="67" spans="18:18">
+      <c r="R67" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="18:18">
+      <c r="R68" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="18:18">
+      <c r="R69" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="70" spans="18:18">
+      <c r="R70" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="18:18">
+      <c r="R71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="18:18">
+      <c r="R72" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="18:18">
+      <c r="R73" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="74" spans="18:18">
+      <c r="R74" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="18:18">
+      <c r="R75" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="18:18">
+      <c r="R76" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="18:18">
+      <c r="R77" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="18:18">
+      <c r="R78" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="18:18">
+      <c r="R79" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="18:18">
+      <c r="R80" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="81" spans="18:18">
+      <c r="R81" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="18:18">
+      <c r="R82" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" spans="18:18">
+      <c r="R83" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="18:18">
+      <c r="R84" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="18:18">
+      <c r="R85" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="18:18">
+      <c r="R86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="87" spans="18:18">
+      <c r="R87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="18:18">
+      <c r="R88" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="18:18">
+      <c r="R89" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="90" spans="18:18">
+      <c r="R90" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="91" spans="18:18">
+      <c r="R91" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="92" spans="18:18">
+      <c r="R92" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" spans="18:18">
+      <c r="R93" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="94" spans="18:18">
+      <c r="R94" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="95" spans="18:18">
+      <c r="R95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="18:18">
+      <c r="R96" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="97" spans="18:18">
+      <c r="R97" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="18:18">
+      <c r="R98" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="99" spans="18:18">
+      <c r="R99" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="100" spans="18:18">
+      <c r="R100" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="18:18">
+      <c r="R101" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="18:18">
+      <c r="R102" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="103" spans="18:18">
+      <c r="R103" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="104" spans="18:18">
+      <c r="R104" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="105" spans="18:18">
+      <c r="R105" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106" spans="18:18">
+      <c r="R106" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="107" spans="18:18">
+      <c r="R107" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="108" spans="18:18">
+      <c r="R108" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="109" spans="18:18">
+      <c r="R109" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="18:18">
+      <c r="R110" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="111" spans="18:18">
+      <c r="R111" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="18:18">
+      <c r="R112" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="113" spans="18:18">
+      <c r="R113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="18:18">
+      <c r="R114" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="115" spans="18:18">
+      <c r="R115" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="116" spans="18:18">
+      <c r="R116" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="117" spans="18:18">
+      <c r="R117" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="118" spans="18:18">
+      <c r="R118" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="119" spans="18:18">
+      <c r="R119" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="120" spans="18:18">
+      <c r="R120" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="121" spans="18:18">
+      <c r="R121" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="122" spans="18:18">
+      <c r="R122" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123" spans="18:18">
+      <c r="R123" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="124" spans="18:18">
+      <c r="R124" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="125" spans="18:18">
+      <c r="R125" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="126" spans="18:18">
+      <c r="R126" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="127" spans="18:18">
+      <c r="R127" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="128" spans="18:18">
+      <c r="R128" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="129" spans="18:18">
+      <c r="R129" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="130" spans="18:18">
+      <c r="R130" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="131" spans="18:18">
+      <c r="R131" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="132" spans="18:18">
+      <c r="R132" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="133" spans="18:18">
+      <c r="R133" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="134" spans="18:18">
+      <c r="R134" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="135" spans="18:18">
+      <c r="R135" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="136" spans="18:18">
+      <c r="R136" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="137" spans="18:18">
+      <c r="R137" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="138" spans="18:18">
+      <c r="R138" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="139" spans="18:18">
+      <c r="R139" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="140" spans="18:18">
+      <c r="R140" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="141" spans="18:18">
+      <c r="R141" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="142" spans="18:18">
+      <c r="R142" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="143" spans="18:18">
+      <c r="R143" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="144" spans="18:18">
+      <c r="R144" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="145" spans="18:18">
+      <c r="R145" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="146" spans="18:18">
+      <c r="R146" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="147" spans="18:18">
+      <c r="R147" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="148" spans="18:18">
+      <c r="R148" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="149" spans="18:18">
+      <c r="R149" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="150" spans="18:18">
+      <c r="R150" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="151" spans="18:18">
+      <c r="R151" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="152" spans="18:18">
+      <c r="R152" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="153" spans="18:18">
+      <c r="R153" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="154" spans="18:18">
+      <c r="R154" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="155" spans="18:18">
+      <c r="R155" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="156" spans="18:18">
+      <c r="R156" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="157" spans="18:18">
+      <c r="R157" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="158" spans="18:18">
+      <c r="R158" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="18:18">
+      <c r="R159" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="160" spans="18:18">
+      <c r="R160" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="161" spans="18:18">
+      <c r="R161" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="18:18">
+      <c r="R162" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="163" spans="18:18">
+      <c r="R163" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="164" spans="18:18">
+      <c r="R164" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="165" spans="18:18">
+      <c r="R165" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" spans="18:18">
+      <c r="R166" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="167" spans="18:18">
+      <c r="R167" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="168" spans="18:18">
+      <c r="R168" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="169" spans="18:18">
+      <c r="R169" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="170" spans="18:18">
+      <c r="R170" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="171" spans="18:18">
+      <c r="R171" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="172" spans="18:18">
+      <c r="R172" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="173" spans="18:18">
+      <c r="R173" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="174" spans="18:18">
+      <c r="R174" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="175" spans="18:18">
+      <c r="R175" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="176" spans="18:18">
+      <c r="R176" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="177" spans="18:18">
+      <c r="R177" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="18:18">
+      <c r="R178" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="179" spans="18:18">
+      <c r="R179" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="180" spans="18:18">
+      <c r="R180" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="181" spans="18:18">
+      <c r="R181" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="182" spans="18:18">
+      <c r="R182" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="183" spans="18:18">
+      <c r="R183" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="184" spans="18:18">
+      <c r="R184" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="185" spans="18:18">
+      <c r="R185" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="186" spans="18:18">
+      <c r="R186" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="187" spans="18:18">
+      <c r="R187" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="188" spans="18:18">
+      <c r="R188" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="189" spans="18:18">
+      <c r="R189" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="190" spans="18:18">
+      <c r="R190" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="191" spans="18:18">
+      <c r="R191" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="192" spans="18:18">
+      <c r="R192" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="193" spans="18:18">
+      <c r="R193" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="194" spans="18:18">
+      <c r="R194" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="195" spans="18:18">
+      <c r="R195" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="196" spans="18:18">
+      <c r="R196" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="197" spans="18:18">
+      <c r="R197" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="198" spans="18:18">
+      <c r="R198" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="199" spans="18:18">
+      <c r="R199" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="200" spans="18:18">
+      <c r="R200" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="201" spans="18:18">
+      <c r="R201" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="202" spans="18:18">
+      <c r="R202" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="203" spans="18:18">
+      <c r="R203" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="204" spans="18:18">
+      <c r="R204" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="205" spans="18:18">
+      <c r="R205" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="206" spans="18:18">
+      <c r="R206" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="207" spans="18:18">
+      <c r="R207" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="208" spans="18:18">
+      <c r="R208" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="209" spans="18:18">
+      <c r="R209" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="210" spans="18:18">
+      <c r="R210" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="211" spans="18:18">
+      <c r="R211" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="212" spans="18:18">
+      <c r="R212" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="213" spans="18:18">
+      <c r="R213" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="214" spans="18:18">
+      <c r="R214" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="215" spans="18:18">
+      <c r="R215" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="216" spans="18:18">
+      <c r="R216" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="217" spans="18:18">
+      <c r="R217" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="218" spans="18:18">
+      <c r="R218" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="219" spans="18:18">
+      <c r="R219" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="220" spans="18:18">
+      <c r="R220" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="221" spans="18:18">
+      <c r="R221" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="222" spans="18:18">
+      <c r="R222" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="223" spans="18:18">
+      <c r="R223" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="224" spans="18:18">
+      <c r="R224" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="225" spans="18:18">
+      <c r="R225" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="226" spans="18:18">
+      <c r="R226" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="227" spans="18:18">
+      <c r="R227" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="228" spans="18:18">
+      <c r="R228" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="229" spans="18:18">
+      <c r="R229" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="230" spans="18:18">
+      <c r="R230" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="231" spans="18:18">
+      <c r="R231" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="232" spans="18:18">
+      <c r="R232" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="233" spans="18:18">
+      <c r="R233" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="234" spans="18:18">
+      <c r="R234" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="235" spans="18:18">
+      <c r="R235" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="236" spans="18:18">
+      <c r="R236" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="237" spans="18:18">
+      <c r="R237" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="238" spans="18:18">
+      <c r="R238" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="239" spans="18:18">
+      <c r="R239" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="240" spans="18:18">
+      <c r="R240" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="241" spans="18:18">
+      <c r="R241" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="242" spans="18:18">
+      <c r="R242" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="243" spans="18:18">
+      <c r="R243" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="244" spans="18:18">
+      <c r="R244" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="245" spans="18:18">
+      <c r="R245" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="246" spans="18:18">
+      <c r="R246" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="247" spans="18:18">
+      <c r="R247" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="248" spans="18:18">
+      <c r="R248" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="249" spans="18:18">
+      <c r="R249" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="250" spans="18:18">
+      <c r="R250" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="251" spans="18:18">
+      <c r="R251" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="252" spans="18:18">
+      <c r="R252" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="253" spans="18:18">
+      <c r="R253" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="254" spans="18:18">
+      <c r="R254" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="255" spans="18:18">
+      <c r="R255" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="256" spans="18:18">
+      <c r="R256" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="257" spans="18:18">
+      <c r="R257" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="258" spans="18:18">
+      <c r="R258" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="259" spans="18:18">
+      <c r="R259" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="260" spans="18:18">
+      <c r="R260" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="261" spans="18:18">
+      <c r="R261" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="262" spans="18:18">
+      <c r="R262" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="263" spans="18:18">
+      <c r="R263" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="264" spans="18:18">
+      <c r="R264" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="265" spans="18:18">
+      <c r="R265" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="266" spans="18:18">
+      <c r="R266" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="267" spans="18:18">
+      <c r="R267" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="268" spans="18:18">
+      <c r="R268" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="269" spans="18:18">
+      <c r="R269" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="270" spans="18:18">
+      <c r="R270" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="271" spans="18:18">
+      <c r="R271" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="272" spans="18:18">
+      <c r="R272" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="18" spans="13:24">
-      <c r="M18" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="19" spans="13:24">
-      <c r="M19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="13:24">
-      <c r="M20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="13:24">
-      <c r="M21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="13:24">
-      <c r="M22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="13:24">
-      <c r="M23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="13:24">
-      <c r="M24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="13:24">
-      <c r="M25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="13:24">
-      <c r="M26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="13:24">
-      <c r="M27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="13:24">
-      <c r="M28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="13:24">
-      <c r="M29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="30" spans="13:24">
-      <c r="M30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="13:24">
-      <c r="M31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="13:24">
-      <c r="M32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="13:13">
-      <c r="M33" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="34" spans="13:13">
-      <c r="M34" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="35" spans="13:13">
-      <c r="M35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="36" spans="13:13">
-      <c r="M36" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="37" spans="13:13">
-      <c r="M37" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="13:13">
-      <c r="M38" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39" spans="13:13">
-      <c r="M39" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="40" spans="13:13">
-      <c r="M40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" spans="13:13">
-      <c r="M41" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="42" spans="13:13">
-      <c r="M42" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="13:13">
-      <c r="M43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="13:13">
-      <c r="M44" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="45" spans="13:13">
-      <c r="M45" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="46" spans="13:13">
-      <c r="M46" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="47" spans="13:13">
-      <c r="M47" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="48" spans="13:13">
-      <c r="M48" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="49" spans="13:13">
-      <c r="M49" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="13:13">
-      <c r="M50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="13:13">
-      <c r="M51" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="52" spans="13:13">
-      <c r="M52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="13:13">
-      <c r="M53" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="54" spans="13:13">
-      <c r="M54" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="55" spans="13:13">
-      <c r="M55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="56" spans="13:13">
-      <c r="M56" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" spans="13:13">
-      <c r="M57" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="58" spans="13:13">
-      <c r="M58" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="59" spans="13:13">
-      <c r="M59" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="60" spans="13:13">
-      <c r="M60" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="13:13">
-      <c r="M61" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="62" spans="13:13">
-      <c r="M62" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="63" spans="13:13">
-      <c r="M63" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="64" spans="13:13">
-      <c r="M64" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="65" spans="13:13">
-      <c r="M65" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="66" spans="13:13">
-      <c r="M66" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="67" spans="13:13">
-      <c r="M67" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="13:13">
-      <c r="M68" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="69" spans="13:13">
-      <c r="M69" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="70" spans="13:13">
-      <c r="M70" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="71" spans="13:13">
-      <c r="M71" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="72" spans="13:13">
-      <c r="M72" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="73" spans="13:13">
-      <c r="M73" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="74" spans="13:13">
-      <c r="M74" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="75" spans="13:13">
-      <c r="M75" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="76" spans="13:13">
-      <c r="M76" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="77" spans="13:13">
-      <c r="M77" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="78" spans="13:13">
-      <c r="M78" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="79" spans="13:13">
-      <c r="M79" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="80" spans="13:13">
-      <c r="M80" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="81" spans="13:13">
-      <c r="M81" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="82" spans="13:13">
-      <c r="M82" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="83" spans="13:13">
-      <c r="M83" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="84" spans="13:13">
-      <c r="M84" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="85" spans="13:13">
-      <c r="M85" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="13:13">
-      <c r="M86" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="87" spans="13:13">
-      <c r="M87" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="88" spans="13:13">
-      <c r="M88" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="89" spans="13:13">
-      <c r="M89" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="90" spans="13:13">
-      <c r="M90" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="91" spans="13:13">
-      <c r="M91" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="92" spans="13:13">
-      <c r="M92" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="93" spans="13:13">
-      <c r="M93" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="94" spans="13:13">
-      <c r="M94" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="95" spans="13:13">
-      <c r="M95" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="96" spans="13:13">
-      <c r="M96" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="97" spans="13:13">
-      <c r="M97" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="98" spans="13:13">
-      <c r="M98" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="99" spans="13:13">
-      <c r="M99" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="100" spans="13:13">
-      <c r="M100" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="101" spans="13:13">
-      <c r="M101" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="102" spans="13:13">
-      <c r="M102" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="103" spans="13:13">
-      <c r="M103" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="104" spans="13:13">
-      <c r="M104" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="105" spans="13:13">
-      <c r="M105" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="106" spans="13:13">
-      <c r="M106" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="107" spans="13:13">
-      <c r="M107" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="108" spans="13:13">
-      <c r="M108" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="109" spans="13:13">
-      <c r="M109" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="110" spans="13:13">
-      <c r="M110" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" spans="13:13">
-      <c r="M111" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="112" spans="13:13">
-      <c r="M112" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="113" spans="13:13">
-      <c r="M113" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="114" spans="13:13">
-      <c r="M114" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="115" spans="13:13">
-      <c r="M115" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="116" spans="13:13">
-      <c r="M116" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="117" spans="13:13">
-      <c r="M117" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="118" spans="13:13">
-      <c r="M118" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="119" spans="13:13">
-      <c r="M119" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="120" spans="13:13">
-      <c r="M120" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="121" spans="13:13">
-      <c r="M121" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="122" spans="13:13">
-      <c r="M122" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="123" spans="13:13">
-      <c r="M123" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="124" spans="13:13">
-      <c r="M124" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="125" spans="13:13">
-      <c r="M125" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="126" spans="13:13">
-      <c r="M126" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="127" spans="13:13">
-      <c r="M127" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="128" spans="13:13">
-      <c r="M128" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="129" spans="13:13">
-      <c r="M129" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="130" spans="13:13">
-      <c r="M130" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="131" spans="13:13">
-      <c r="M131" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="132" spans="13:13">
-      <c r="M132" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="133" spans="13:13">
-      <c r="M133" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="134" spans="13:13">
-      <c r="M134" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="135" spans="13:13">
-      <c r="M135" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="136" spans="13:13">
-      <c r="M136" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="137" spans="13:13">
-      <c r="M137" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="138" spans="13:13">
-      <c r="M138" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="139" spans="13:13">
-      <c r="M139" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="140" spans="13:13">
-      <c r="M140" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="141" spans="13:13">
-      <c r="M141" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="142" spans="13:13">
-      <c r="M142" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="143" spans="13:13">
-      <c r="M143" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="144" spans="13:13">
-      <c r="M144" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="145" spans="13:13">
-      <c r="M145" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="146" spans="13:13">
-      <c r="M146" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="147" spans="13:13">
-      <c r="M147" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="148" spans="13:13">
-      <c r="M148" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="149" spans="13:13">
-      <c r="M149" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="150" spans="13:13">
-      <c r="M150" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="151" spans="13:13">
-      <c r="M151" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="152" spans="13:13">
-      <c r="M152" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="153" spans="13:13">
-      <c r="M153" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="154" spans="13:13">
-      <c r="M154" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="155" spans="13:13">
-      <c r="M155" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="156" spans="13:13">
-      <c r="M156" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="157" spans="13:13">
-      <c r="M157" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="158" spans="13:13">
-      <c r="M158" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="159" spans="13:13">
-      <c r="M159" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="160" spans="13:13">
-      <c r="M160" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="161" spans="13:13">
-      <c r="M161" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="162" spans="13:13">
-      <c r="M162" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="163" spans="13:13">
-      <c r="M163" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="164" spans="13:13">
-      <c r="M164" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="165" spans="13:13">
-      <c r="M165" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="166" spans="13:13">
-      <c r="M166" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="167" spans="13:13">
-      <c r="M167" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="168" spans="13:13">
-      <c r="M168" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="169" spans="13:13">
-      <c r="M169" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="170" spans="13:13">
-      <c r="M170" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="171" spans="13:13">
-      <c r="M171" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="172" spans="13:13">
-      <c r="M172" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="173" spans="13:13">
-      <c r="M173" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="174" spans="13:13">
-      <c r="M174" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="175" spans="13:13">
-      <c r="M175" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="176" spans="13:13">
-      <c r="M176" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="177" spans="13:13">
-      <c r="M177" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="178" spans="13:13">
-      <c r="M178" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="179" spans="13:13">
-      <c r="M179" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="180" spans="13:13">
-      <c r="M180" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="181" spans="13:13">
-      <c r="M181" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="182" spans="13:13">
-      <c r="M182" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="183" spans="13:13">
-      <c r="M183" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="184" spans="13:13">
-      <c r="M184" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="185" spans="13:13">
-      <c r="M185" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="186" spans="13:13">
-      <c r="M186" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="187" spans="13:13">
-      <c r="M187" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="188" spans="13:13">
-      <c r="M188" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="189" spans="13:13">
-      <c r="M189" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="190" spans="13:13">
-      <c r="M190" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="191" spans="13:13">
-      <c r="M191" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="192" spans="13:13">
-      <c r="M192" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="193" spans="13:13">
-      <c r="M193" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="194" spans="13:13">
-      <c r="M194" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="195" spans="13:13">
-      <c r="M195" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="196" spans="13:13">
-      <c r="M196" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="197" spans="13:13">
-      <c r="M197" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="198" spans="13:13">
-      <c r="M198" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="199" spans="13:13">
-      <c r="M199" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="200" spans="13:13">
-      <c r="M200" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="201" spans="13:13">
-      <c r="M201" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="202" spans="13:13">
-      <c r="M202" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="203" spans="13:13">
-      <c r="M203" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="204" spans="13:13">
-      <c r="M204" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="205" spans="13:13">
-      <c r="M205" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="206" spans="13:13">
-      <c r="M206" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="207" spans="13:13">
-      <c r="M207" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="208" spans="13:13">
-      <c r="M208" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="209" spans="13:13">
-      <c r="M209" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="210" spans="13:13">
-      <c r="M210" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="211" spans="13:13">
-      <c r="M211" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="212" spans="13:13">
-      <c r="M212" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="213" spans="13:13">
-      <c r="M213" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="214" spans="13:13">
-      <c r="M214" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="215" spans="13:13">
-      <c r="M215" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="216" spans="13:13">
-      <c r="M216" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="217" spans="13:13">
-      <c r="M217" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="218" spans="13:13">
-      <c r="M218" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="219" spans="13:13">
-      <c r="M219" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="220" spans="13:13">
-      <c r="M220" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="221" spans="13:13">
-      <c r="M221" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="222" spans="13:13">
-      <c r="M222" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="223" spans="13:13">
-      <c r="M223" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="224" spans="13:13">
-      <c r="M224" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="225" spans="13:13">
-      <c r="M225" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="226" spans="13:13">
-      <c r="M226" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="227" spans="13:13">
-      <c r="M227" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="228" spans="13:13">
-      <c r="M228" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="229" spans="13:13">
-      <c r="M229" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="230" spans="13:13">
-      <c r="M230" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="231" spans="13:13">
-      <c r="M231" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="232" spans="13:13">
-      <c r="M232" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="233" spans="13:13">
-      <c r="M233" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="234" spans="13:13">
-      <c r="M234" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="235" spans="13:13">
-      <c r="M235" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="236" spans="13:13">
-      <c r="M236" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="237" spans="13:13">
-      <c r="M237" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="238" spans="13:13">
-      <c r="M238" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="239" spans="13:13">
-      <c r="M239" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="240" spans="13:13">
-      <c r="M240" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="241" spans="13:13">
-      <c r="M241" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="242" spans="13:13">
-      <c r="M242" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="243" spans="13:13">
-      <c r="M243" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="244" spans="13:13">
-      <c r="M244" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="245" spans="13:13">
-      <c r="M245" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="246" spans="13:13">
-      <c r="M246" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="247" spans="13:13">
-      <c r="M247" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="248" spans="13:13">
-      <c r="M248" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="249" spans="13:13">
-      <c r="M249" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="250" spans="13:13">
-      <c r="M250" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="251" spans="13:13">
-      <c r="M251" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="252" spans="13:13">
-      <c r="M252" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="253" spans="13:13">
-      <c r="M253" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="254" spans="13:13">
-      <c r="M254" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="255" spans="13:13">
-      <c r="M255" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="256" spans="13:13">
-      <c r="M256" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="257" spans="13:13">
-      <c r="M257" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="258" spans="13:13">
-      <c r="M258" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="259" spans="13:13">
-      <c r="M259" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="260" spans="13:13">
-      <c r="M260" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="261" spans="13:13">
-      <c r="M261" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="262" spans="13:13">
-      <c r="M262" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="263" spans="13:13">
-      <c r="M263" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="264" spans="13:13">
-      <c r="M264" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="265" spans="13:13">
-      <c r="M265" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="266" spans="13:13">
-      <c r="M266" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="267" spans="13:13">
-      <c r="M267" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="268" spans="13:13">
-      <c r="M268" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="269" spans="13:13">
-      <c r="M269" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="270" spans="13:13">
-      <c r="M270" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="271" spans="13:13">
-      <c r="M271" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="272" spans="13:13">
-      <c r="M272" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="273" spans="13:13">
-      <c r="M273" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="274" spans="13:13">
-      <c r="M274" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="275" spans="13:13">
-      <c r="M275" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="276" spans="13:13">
-      <c r="M276" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="277" spans="13:13">
-      <c r="M277" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="278" spans="13:13">
-      <c r="M278" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="279" spans="13:13">
-      <c r="M279" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="280" spans="13:13">
-      <c r="M280" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="281" spans="13:13">
-      <c r="M281" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="282" spans="13:13">
-      <c r="M282" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="283" spans="13:13">
-      <c r="M283" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="284" spans="13:13">
-      <c r="M284" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="285" spans="13:13">
-      <c r="M285" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="286" spans="13:13">
-      <c r="M286" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="287" spans="13:13">
-      <c r="M287" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="288" spans="13:13">
-      <c r="M288" t="s">
-        <v>571</v>
+    <row r="273" spans="18:18">
+      <c r="R273" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="274" spans="18:18">
+      <c r="R274" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="275" spans="18:18">
+      <c r="R275" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="276" spans="18:18">
+      <c r="R276" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="277" spans="18:18">
+      <c r="R277" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="278" spans="18:18">
+      <c r="R278" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="279" spans="18:18">
+      <c r="R279" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="280" spans="18:18">
+      <c r="R280" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="281" spans="18:18">
+      <c r="R281" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="282" spans="18:18">
+      <c r="R282" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="283" spans="18:18">
+      <c r="R283" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="284" spans="18:18">
+      <c r="R284" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="285" spans="18:18">
+      <c r="R285" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="286" spans="18:18">
+      <c r="R286" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="287" spans="18:18">
+      <c r="R287" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="288" spans="18:18">
+      <c r="R288" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="289" spans="18:18">
+      <c r="R289" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -25,7 +25,7 @@
     <definedName name="hosthabitat">'cv_sample'!$AI$1:$AI$7</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$W$1:$W$14</definedName>
     <definedName name="hostsex">'cv_sample'!$X$1:$X$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="654">
   <si>
     <t>alias</t>
   </si>
@@ -641,6 +641,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2535,7 +2538,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2579,7 +2582,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2606,7 +2609,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3318,6 +3321,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3342,27 +3350,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3385,122 +3393,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3527,240 +3535,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -3804,74 +3812,74 @@
   <sheetData>
     <row r="1" spans="9:39">
       <c r="I1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="R1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="W1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="X1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AI1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AM1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="9:39">
       <c r="I2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="X2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AI2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" spans="9:39">
       <c r="Q3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="X3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AI3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AM3" t="s">
         <v>116</v>
@@ -3879,22 +3887,22 @@
     </row>
     <row r="4" spans="9:39">
       <c r="Q4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="W4" t="s">
+        <v>579</v>
+      </c>
+      <c r="X4" t="s">
         <v>578</v>
       </c>
-      <c r="X4" t="s">
-        <v>577</v>
-      </c>
       <c r="AI4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="9:39">
@@ -3902,13 +3910,13 @@
         <v>116</v>
       </c>
       <c r="R5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W5" t="s">
+        <v>580</v>
+      </c>
+      <c r="X5" t="s">
         <v>579</v>
-      </c>
-      <c r="X5" t="s">
-        <v>578</v>
       </c>
       <c r="AI5" t="s">
         <v>116</v>
@@ -3916,126 +3924,126 @@
     </row>
     <row r="6" spans="9:39">
       <c r="Q6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W6" t="s">
+        <v>581</v>
+      </c>
+      <c r="X6" t="s">
         <v>580</v>
       </c>
-      <c r="X6" t="s">
-        <v>579</v>
-      </c>
       <c r="AI6" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="9:39">
       <c r="Q7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W7" t="s">
+        <v>582</v>
+      </c>
+      <c r="X7" t="s">
         <v>581</v>
       </c>
-      <c r="X7" t="s">
-        <v>580</v>
-      </c>
       <c r="AI7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="9:39">
       <c r="R8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W8" t="s">
+        <v>583</v>
+      </c>
+      <c r="X8" t="s">
         <v>582</v>
-      </c>
-      <c r="X8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="9" spans="9:39">
       <c r="R9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W9" t="s">
+        <v>584</v>
+      </c>
+      <c r="X9" t="s">
         <v>583</v>
-      </c>
-      <c r="X9" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="10" spans="9:39">
       <c r="R10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W10" t="s">
+        <v>585</v>
+      </c>
+      <c r="X10" t="s">
         <v>584</v>
-      </c>
-      <c r="X10" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="11" spans="9:39">
       <c r="R11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W11" t="s">
+        <v>586</v>
+      </c>
+      <c r="X11" t="s">
         <v>585</v>
-      </c>
-      <c r="X11" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="12" spans="9:39">
       <c r="R12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="X12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="9:39">
       <c r="R13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="X13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="9:39">
       <c r="R14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="X14" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="9:39">
       <c r="R15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="X15" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="9:39">
       <c r="R16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X16" t="s">
         <v>116</v>
@@ -4043,1370 +4051,1370 @@
     </row>
     <row r="17" spans="18:24">
       <c r="R17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X17" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="18:24">
       <c r="R18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="18:24">
       <c r="R19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="18:24">
       <c r="R20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="18:24">
       <c r="R21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="18:24">
       <c r="R22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="18:24">
       <c r="R23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="18:24">
       <c r="R24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="18:24">
       <c r="R25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="18:24">
       <c r="R26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="18:24">
       <c r="R27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="18:24">
       <c r="R28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="18:24">
       <c r="R29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="18:24">
       <c r="R30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="18:24">
       <c r="R31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="18:24">
       <c r="R32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="18:18">
       <c r="R33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="18:18">
       <c r="R34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="18:18">
       <c r="R35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="18:18">
       <c r="R36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="18:18">
       <c r="R37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="18:18">
       <c r="R38" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="18:18">
       <c r="R39" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="18:18">
       <c r="R40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="18:18">
       <c r="R41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="18:18">
       <c r="R42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="18:18">
       <c r="R43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="18:18">
       <c r="R44" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="18:18">
       <c r="R45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="18:18">
       <c r="R46" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="18:18">
       <c r="R47" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="18:18">
       <c r="R48" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="18:18">
       <c r="R49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50" spans="18:18">
       <c r="R50" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="18:18">
       <c r="R51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="18:18">
       <c r="R52" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="18:18">
       <c r="R53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="18:18">
       <c r="R54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="18:18">
       <c r="R55" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="18:18">
       <c r="R56" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="18:18">
       <c r="R57" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="18:18">
       <c r="R58" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="18:18">
       <c r="R59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="18:18">
       <c r="R60" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="18:18">
       <c r="R61" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="18:18">
       <c r="R62" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="18:18">
       <c r="R63" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="64" spans="18:18">
       <c r="R64" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65" spans="18:18">
       <c r="R65" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="18:18">
       <c r="R66" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="18:18">
       <c r="R67" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="18:18">
       <c r="R68" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="18:18">
       <c r="R69" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="18:18">
       <c r="R70" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="18:18">
       <c r="R71" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="18:18">
       <c r="R72" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="18:18">
       <c r="R73" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="18:18">
       <c r="R74" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="18:18">
       <c r="R75" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="18:18">
       <c r="R76" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="18:18">
       <c r="R77" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="18:18">
       <c r="R78" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="18:18">
       <c r="R79" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="18:18">
       <c r="R80" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="18:18">
       <c r="R81" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="18:18">
       <c r="R82" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="18:18">
       <c r="R83" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="18:18">
       <c r="R84" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="18:18">
       <c r="R85" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="18:18">
       <c r="R86" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="18:18">
       <c r="R87" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="18:18">
       <c r="R88" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="18:18">
       <c r="R89" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="18:18">
       <c r="R90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="18:18">
       <c r="R91" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="18:18">
       <c r="R92" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="18:18">
       <c r="R93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="18:18">
       <c r="R94" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="18:18">
       <c r="R95" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="96" spans="18:18">
       <c r="R96" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="18:18">
       <c r="R97" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="18:18">
       <c r="R98" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="99" spans="18:18">
       <c r="R99" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="18:18">
       <c r="R100" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="18:18">
       <c r="R101" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="18:18">
       <c r="R102" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="18:18">
       <c r="R103" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="18:18">
       <c r="R104" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="18:18">
       <c r="R105" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="18:18">
       <c r="R106" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="18:18">
       <c r="R107" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="108" spans="18:18">
       <c r="R108" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="18:18">
       <c r="R109" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="110" spans="18:18">
       <c r="R110" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="18:18">
       <c r="R111" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="18:18">
       <c r="R112" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="113" spans="18:18">
       <c r="R113" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114" spans="18:18">
       <c r="R114" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="115" spans="18:18">
       <c r="R115" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="116" spans="18:18">
       <c r="R116" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="117" spans="18:18">
       <c r="R117" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="118" spans="18:18">
       <c r="R118" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="18:18">
       <c r="R119" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="18:18">
       <c r="R120" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="18:18">
       <c r="R121" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="18:18">
       <c r="R122" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="18:18">
       <c r="R123" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="18:18">
       <c r="R124" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="18:18">
       <c r="R125" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="18:18">
       <c r="R126" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="18:18">
       <c r="R127" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="128" spans="18:18">
       <c r="R128" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="18:18">
       <c r="R129" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="18:18">
       <c r="R130" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="18:18">
       <c r="R131" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" spans="18:18">
       <c r="R132" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="18:18">
       <c r="R133" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" spans="18:18">
       <c r="R134" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="135" spans="18:18">
       <c r="R135" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="18:18">
       <c r="R136" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="137" spans="18:18">
       <c r="R137" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="138" spans="18:18">
       <c r="R138" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="139" spans="18:18">
       <c r="R139" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="18:18">
       <c r="R140" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="18:18">
       <c r="R141" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="18:18">
       <c r="R142" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="18:18">
       <c r="R143" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="18:18">
       <c r="R144" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="145" spans="18:18">
       <c r="R145" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="18:18">
       <c r="R146" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="18:18">
       <c r="R147" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="148" spans="18:18">
       <c r="R148" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="18:18">
       <c r="R149" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="150" spans="18:18">
       <c r="R150" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="151" spans="18:18">
       <c r="R151" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="18:18">
       <c r="R152" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="18:18">
       <c r="R153" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="18:18">
       <c r="R154" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="155" spans="18:18">
       <c r="R155" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" spans="18:18">
       <c r="R156" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="157" spans="18:18">
       <c r="R157" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="158" spans="18:18">
       <c r="R158" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="159" spans="18:18">
       <c r="R159" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" spans="18:18">
       <c r="R160" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="161" spans="18:18">
       <c r="R161" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="18:18">
       <c r="R162" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="163" spans="18:18">
       <c r="R163" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="164" spans="18:18">
       <c r="R164" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="165" spans="18:18">
       <c r="R165" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="166" spans="18:18">
       <c r="R166" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="167" spans="18:18">
       <c r="R167" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="18:18">
       <c r="R168" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="18:18">
       <c r="R169" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="170" spans="18:18">
       <c r="R170" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="171" spans="18:18">
       <c r="R171" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="172" spans="18:18">
       <c r="R172" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="173" spans="18:18">
       <c r="R173" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="18:18">
       <c r="R174" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="18:18">
       <c r="R175" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="18:18">
       <c r="R176" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="18:18">
       <c r="R177" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="18:18">
       <c r="R178" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="179" spans="18:18">
       <c r="R179" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="18:18">
       <c r="R180" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="181" spans="18:18">
       <c r="R181" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="18:18">
       <c r="R182" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="183" spans="18:18">
       <c r="R183" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="18:18">
       <c r="R184" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="18:18">
       <c r="R185" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" spans="18:18">
       <c r="R186" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" spans="18:18">
       <c r="R187" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188" spans="18:18">
       <c r="R188" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="18:18">
       <c r="R189" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" spans="18:18">
       <c r="R190" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191" spans="18:18">
       <c r="R191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="192" spans="18:18">
       <c r="R192" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="193" spans="18:18">
       <c r="R193" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="194" spans="18:18">
       <c r="R194" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="18:18">
       <c r="R195" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" spans="18:18">
       <c r="R196" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="18:18">
       <c r="R197" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" spans="18:18">
       <c r="R198" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199" spans="18:18">
       <c r="R199" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" spans="18:18">
       <c r="R200" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="18:18">
       <c r="R201" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="202" spans="18:18">
       <c r="R202" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="203" spans="18:18">
       <c r="R203" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="204" spans="18:18">
       <c r="R204" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="205" spans="18:18">
       <c r="R205" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="206" spans="18:18">
       <c r="R206" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="207" spans="18:18">
       <c r="R207" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="208" spans="18:18">
       <c r="R208" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="209" spans="18:18">
       <c r="R209" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="210" spans="18:18">
       <c r="R210" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="211" spans="18:18">
       <c r="R211" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="212" spans="18:18">
       <c r="R212" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="213" spans="18:18">
       <c r="R213" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="214" spans="18:18">
       <c r="R214" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="215" spans="18:18">
       <c r="R215" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="216" spans="18:18">
       <c r="R216" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="217" spans="18:18">
       <c r="R217" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="218" spans="18:18">
       <c r="R218" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="219" spans="18:18">
       <c r="R219" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="220" spans="18:18">
       <c r="R220" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="221" spans="18:18">
       <c r="R221" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="222" spans="18:18">
       <c r="R222" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="223" spans="18:18">
       <c r="R223" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="224" spans="18:18">
       <c r="R224" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="225" spans="18:18">
       <c r="R225" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="226" spans="18:18">
       <c r="R226" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="227" spans="18:18">
       <c r="R227" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="228" spans="18:18">
       <c r="R228" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="229" spans="18:18">
       <c r="R229" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="230" spans="18:18">
       <c r="R230" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="231" spans="18:18">
       <c r="R231" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="232" spans="18:18">
       <c r="R232" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="233" spans="18:18">
       <c r="R233" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="234" spans="18:18">
       <c r="R234" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="235" spans="18:18">
       <c r="R235" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="236" spans="18:18">
       <c r="R236" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="237" spans="18:18">
       <c r="R237" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="238" spans="18:18">
       <c r="R238" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="239" spans="18:18">
       <c r="R239" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="240" spans="18:18">
       <c r="R240" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="241" spans="18:18">
       <c r="R241" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="242" spans="18:18">
       <c r="R242" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="243" spans="18:18">
       <c r="R243" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="244" spans="18:18">
       <c r="R244" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="245" spans="18:18">
       <c r="R245" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="246" spans="18:18">
       <c r="R246" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="247" spans="18:18">
       <c r="R247" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="248" spans="18:18">
       <c r="R248" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="249" spans="18:18">
       <c r="R249" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="250" spans="18:18">
       <c r="R250" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="251" spans="18:18">
       <c r="R251" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="252" spans="18:18">
       <c r="R252" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="253" spans="18:18">
       <c r="R253" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="254" spans="18:18">
       <c r="R254" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="255" spans="18:18">
       <c r="R255" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="256" spans="18:18">
       <c r="R256" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="257" spans="18:18">
       <c r="R257" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="258" spans="18:18">
       <c r="R258" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="259" spans="18:18">
       <c r="R259" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="260" spans="18:18">
       <c r="R260" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="261" spans="18:18">
       <c r="R261" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="262" spans="18:18">
       <c r="R262" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="263" spans="18:18">
       <c r="R263" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="264" spans="18:18">
       <c r="R264" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="265" spans="18:18">
       <c r="R265" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="266" spans="18:18">
       <c r="R266" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="267" spans="18:18">
       <c r="R267" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="268" spans="18:18">
       <c r="R268" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="269" spans="18:18">
       <c r="R269" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="270" spans="18:18">
       <c r="R270" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="271" spans="18:18">
       <c r="R271" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="272" spans="18:18">
       <c r="R272" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="273" spans="18:18">
       <c r="R273" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="18:18">
       <c r="R274" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="275" spans="18:18">
       <c r="R275" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="276" spans="18:18">
       <c r="R276" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="277" spans="18:18">
       <c r="R277" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="278" spans="18:18">
       <c r="R278" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279" spans="18:18">
       <c r="R279" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="18:18">
       <c r="R280" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="281" spans="18:18">
       <c r="R281" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="18:18">
       <c r="R282" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="283" spans="18:18">
       <c r="R283" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="284" spans="18:18">
       <c r="R284" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="285" spans="18:18">
       <c r="R285" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="286" spans="18:18">
       <c r="R286" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="287" spans="18:18">
       <c r="R287" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="288" spans="18:18">
       <c r="R288" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="289" spans="18:18">
       <c r="R289" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -25,7 +25,7 @@
     <definedName name="hosthabitat">'cv_sample'!$AI$1:$AI$7</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$W$1:$W$14</definedName>
     <definedName name="hostsex">'cv_sample'!$X$1:$X$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="655">
   <si>
     <t>alias</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2538,7 +2541,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2582,7 +2585,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +2612,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3326,6 +3329,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3350,27 +3358,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3393,122 +3401,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3535,240 +3543,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -3812,74 +3820,74 @@
   <sheetData>
     <row r="1" spans="9:39">
       <c r="I1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="R1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="S1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="W1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="X1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AI1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AM1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="9:39">
       <c r="I2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="X2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AI2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AM2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="9:39">
       <c r="Q3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="W3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="X3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AI3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM3" t="s">
         <v>116</v>
@@ -3887,22 +3895,22 @@
     </row>
     <row r="4" spans="9:39">
       <c r="Q4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W4" t="s">
+        <v>580</v>
+      </c>
+      <c r="X4" t="s">
         <v>579</v>
       </c>
-      <c r="X4" t="s">
-        <v>578</v>
-      </c>
       <c r="AI4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AM4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" spans="9:39">
@@ -3910,13 +3918,13 @@
         <v>116</v>
       </c>
       <c r="R5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W5" t="s">
+        <v>581</v>
+      </c>
+      <c r="X5" t="s">
         <v>580</v>
-      </c>
-      <c r="X5" t="s">
-        <v>579</v>
       </c>
       <c r="AI5" t="s">
         <v>116</v>
@@ -3924,126 +3932,126 @@
     </row>
     <row r="6" spans="9:39">
       <c r="Q6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W6" t="s">
+        <v>582</v>
+      </c>
+      <c r="X6" t="s">
         <v>581</v>
       </c>
-      <c r="X6" t="s">
-        <v>580</v>
-      </c>
       <c r="AI6" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="9:39">
       <c r="Q7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W7" t="s">
+        <v>583</v>
+      </c>
+      <c r="X7" t="s">
         <v>582</v>
       </c>
-      <c r="X7" t="s">
-        <v>581</v>
-      </c>
       <c r="AI7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="9:39">
       <c r="R8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W8" t="s">
+        <v>584</v>
+      </c>
+      <c r="X8" t="s">
         <v>583</v>
-      </c>
-      <c r="X8" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="9" spans="9:39">
       <c r="R9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W9" t="s">
+        <v>585</v>
+      </c>
+      <c r="X9" t="s">
         <v>584</v>
-      </c>
-      <c r="X9" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="10" spans="9:39">
       <c r="R10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W10" t="s">
+        <v>586</v>
+      </c>
+      <c r="X10" t="s">
         <v>585</v>
-      </c>
-      <c r="X10" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="11" spans="9:39">
       <c r="R11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W11" t="s">
+        <v>587</v>
+      </c>
+      <c r="X11" t="s">
         <v>586</v>
-      </c>
-      <c r="X11" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="12" spans="9:39">
       <c r="R12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="X12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="9:39">
       <c r="R13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="X13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="9:39">
       <c r="R14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X14" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="9:39">
       <c r="R15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X15" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="9:39">
       <c r="R16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X16" t="s">
         <v>116</v>
@@ -4051,1370 +4059,1370 @@
     </row>
     <row r="17" spans="18:24">
       <c r="R17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X17" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="18:24">
       <c r="R18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="18:24">
       <c r="R19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="18:24">
       <c r="R20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="18:24">
       <c r="R21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="18:24">
       <c r="R22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="18:24">
       <c r="R23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="18:24">
       <c r="R24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="18:24">
       <c r="R25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="18:24">
       <c r="R26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="18:24">
       <c r="R27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="18:24">
       <c r="R28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="18:24">
       <c r="R29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="18:24">
       <c r="R30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="18:24">
       <c r="R31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="18:24">
       <c r="R32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="18:18">
       <c r="R33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="18:18">
       <c r="R34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="18:18">
       <c r="R35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="18:18">
       <c r="R36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="18:18">
       <c r="R37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="18:18">
       <c r="R38" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="18:18">
       <c r="R39" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="18:18">
       <c r="R40" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="18:18">
       <c r="R41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="18:18">
       <c r="R42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="18:18">
       <c r="R43" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="18:18">
       <c r="R44" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="18:18">
       <c r="R45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="18:18">
       <c r="R46" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="18:18">
       <c r="R47" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="18:18">
       <c r="R48" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="18:18">
       <c r="R49" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="18:18">
       <c r="R50" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="18:18">
       <c r="R51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="18:18">
       <c r="R52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="18:18">
       <c r="R53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="18:18">
       <c r="R54" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="18:18">
       <c r="R55" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="18:18">
       <c r="R56" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="18:18">
       <c r="R57" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="18:18">
       <c r="R58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="18:18">
       <c r="R59" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="18:18">
       <c r="R60" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="18:18">
       <c r="R61" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="18:18">
       <c r="R62" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" spans="18:18">
       <c r="R63" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="18:18">
       <c r="R64" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="18:18">
       <c r="R65" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="66" spans="18:18">
       <c r="R66" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="18:18">
       <c r="R67" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="18:18">
       <c r="R68" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="18:18">
       <c r="R69" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="18:18">
       <c r="R70" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="18:18">
       <c r="R71" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="18:18">
       <c r="R72" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="18:18">
       <c r="R73" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="18:18">
       <c r="R74" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="18:18">
       <c r="R75" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="18:18">
       <c r="R76" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="18:18">
       <c r="R77" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="18:18">
       <c r="R78" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="18:18">
       <c r="R79" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="18:18">
       <c r="R80" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="18:18">
       <c r="R81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="18:18">
       <c r="R82" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="18:18">
       <c r="R83" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="18:18">
       <c r="R84" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="18:18">
       <c r="R85" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="18:18">
       <c r="R86" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="87" spans="18:18">
       <c r="R87" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="18:18">
       <c r="R88" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="89" spans="18:18">
       <c r="R89" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="18:18">
       <c r="R90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="91" spans="18:18">
       <c r="R91" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="18:18">
       <c r="R92" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="18:18">
       <c r="R93" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="18:18">
       <c r="R94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="18:18">
       <c r="R95" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="96" spans="18:18">
       <c r="R96" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="18:18">
       <c r="R97" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="98" spans="18:18">
       <c r="R98" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="18:18">
       <c r="R99" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="18:18">
       <c r="R100" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="101" spans="18:18">
       <c r="R101" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="18:18">
       <c r="R102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103" spans="18:18">
       <c r="R103" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="18:18">
       <c r="R104" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="105" spans="18:18">
       <c r="R105" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="18:18">
       <c r="R106" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="107" spans="18:18">
       <c r="R107" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="18:18">
       <c r="R108" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="109" spans="18:18">
       <c r="R109" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="18:18">
       <c r="R110" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="111" spans="18:18">
       <c r="R111" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="18:18">
       <c r="R112" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="113" spans="18:18">
       <c r="R113" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="114" spans="18:18">
       <c r="R114" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="115" spans="18:18">
       <c r="R115" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="18:18">
       <c r="R116" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="18:18">
       <c r="R117" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="18:18">
       <c r="R118" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="119" spans="18:18">
       <c r="R119" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="120" spans="18:18">
       <c r="R120" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="121" spans="18:18">
       <c r="R121" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="18:18">
       <c r="R122" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="18:18">
       <c r="R123" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="18:18">
       <c r="R124" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="18:18">
       <c r="R125" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" spans="18:18">
       <c r="R126" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127" spans="18:18">
       <c r="R127" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="18:18">
       <c r="R128" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="129" spans="18:18">
       <c r="R129" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130" spans="18:18">
       <c r="R130" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="131" spans="18:18">
       <c r="R131" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="18:18">
       <c r="R132" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="133" spans="18:18">
       <c r="R133" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" spans="18:18">
       <c r="R134" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="18:18">
       <c r="R135" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="136" spans="18:18">
       <c r="R136" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="137" spans="18:18">
       <c r="R137" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="138" spans="18:18">
       <c r="R138" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="18:18">
       <c r="R139" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" spans="18:18">
       <c r="R140" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="141" spans="18:18">
       <c r="R141" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="18:18">
       <c r="R142" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="18:18">
       <c r="R143" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="144" spans="18:18">
       <c r="R144" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="145" spans="18:18">
       <c r="R145" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="146" spans="18:18">
       <c r="R146" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="147" spans="18:18">
       <c r="R147" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="18:18">
       <c r="R148" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="149" spans="18:18">
       <c r="R149" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="150" spans="18:18">
       <c r="R150" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="151" spans="18:18">
       <c r="R151" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="152" spans="18:18">
       <c r="R152" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="153" spans="18:18">
       <c r="R153" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="154" spans="18:18">
       <c r="R154" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="18:18">
       <c r="R155" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="156" spans="18:18">
       <c r="R156" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="18:18">
       <c r="R157" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="158" spans="18:18">
       <c r="R158" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="159" spans="18:18">
       <c r="R159" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="160" spans="18:18">
       <c r="R160" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="18:18">
       <c r="R161" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="162" spans="18:18">
       <c r="R162" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="163" spans="18:18">
       <c r="R163" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="164" spans="18:18">
       <c r="R164" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="165" spans="18:18">
       <c r="R165" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="166" spans="18:18">
       <c r="R166" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="18:18">
       <c r="R167" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="18:18">
       <c r="R168" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="169" spans="18:18">
       <c r="R169" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="170" spans="18:18">
       <c r="R170" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="171" spans="18:18">
       <c r="R171" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="172" spans="18:18">
       <c r="R172" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="173" spans="18:18">
       <c r="R173" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="174" spans="18:18">
       <c r="R174" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="18:18">
       <c r="R175" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" spans="18:18">
       <c r="R176" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="18:18">
       <c r="R177" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="178" spans="18:18">
       <c r="R178" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="179" spans="18:18">
       <c r="R179" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="18:18">
       <c r="R180" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" spans="18:18">
       <c r="R181" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="182" spans="18:18">
       <c r="R182" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="183" spans="18:18">
       <c r="R183" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="184" spans="18:18">
       <c r="R184" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="185" spans="18:18">
       <c r="R185" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" spans="18:18">
       <c r="R186" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="187" spans="18:18">
       <c r="R187" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" spans="18:18">
       <c r="R188" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="189" spans="18:18">
       <c r="R189" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="190" spans="18:18">
       <c r="R190" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="191" spans="18:18">
       <c r="R191" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="192" spans="18:18">
       <c r="R192" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" spans="18:18">
       <c r="R193" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" spans="18:18">
       <c r="R194" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="195" spans="18:18">
       <c r="R195" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="196" spans="18:18">
       <c r="R196" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="197" spans="18:18">
       <c r="R197" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198" spans="18:18">
       <c r="R198" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="199" spans="18:18">
       <c r="R199" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="18:18">
       <c r="R200" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="201" spans="18:18">
       <c r="R201" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="18:18">
       <c r="R202" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="203" spans="18:18">
       <c r="R203" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="204" spans="18:18">
       <c r="R204" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="205" spans="18:18">
       <c r="R205" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="206" spans="18:18">
       <c r="R206" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="18:18">
       <c r="R207" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="208" spans="18:18">
       <c r="R208" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="209" spans="18:18">
       <c r="R209" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="210" spans="18:18">
       <c r="R210" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="211" spans="18:18">
       <c r="R211" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="212" spans="18:18">
       <c r="R212" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="213" spans="18:18">
       <c r="R213" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="214" spans="18:18">
       <c r="R214" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="215" spans="18:18">
       <c r="R215" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="216" spans="18:18">
       <c r="R216" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="217" spans="18:18">
       <c r="R217" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="218" spans="18:18">
       <c r="R218" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="219" spans="18:18">
       <c r="R219" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="220" spans="18:18">
       <c r="R220" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="221" spans="18:18">
       <c r="R221" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="222" spans="18:18">
       <c r="R222" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="223" spans="18:18">
       <c r="R223" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="224" spans="18:18">
       <c r="R224" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="225" spans="18:18">
       <c r="R225" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="226" spans="18:18">
       <c r="R226" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="227" spans="18:18">
       <c r="R227" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="228" spans="18:18">
       <c r="R228" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="229" spans="18:18">
       <c r="R229" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="230" spans="18:18">
       <c r="R230" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="231" spans="18:18">
       <c r="R231" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="232" spans="18:18">
       <c r="R232" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="233" spans="18:18">
       <c r="R233" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="234" spans="18:18">
       <c r="R234" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="235" spans="18:18">
       <c r="R235" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="236" spans="18:18">
       <c r="R236" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="237" spans="18:18">
       <c r="R237" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="238" spans="18:18">
       <c r="R238" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="239" spans="18:18">
       <c r="R239" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="240" spans="18:18">
       <c r="R240" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="241" spans="18:18">
       <c r="R241" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="242" spans="18:18">
       <c r="R242" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="243" spans="18:18">
       <c r="R243" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="244" spans="18:18">
       <c r="R244" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="245" spans="18:18">
       <c r="R245" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="246" spans="18:18">
       <c r="R246" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="247" spans="18:18">
       <c r="R247" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="248" spans="18:18">
       <c r="R248" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="249" spans="18:18">
       <c r="R249" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="250" spans="18:18">
       <c r="R250" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="251" spans="18:18">
       <c r="R251" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="252" spans="18:18">
       <c r="R252" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="253" spans="18:18">
       <c r="R253" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="254" spans="18:18">
       <c r="R254" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="255" spans="18:18">
       <c r="R255" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="256" spans="18:18">
       <c r="R256" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="257" spans="18:18">
       <c r="R257" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="258" spans="18:18">
       <c r="R258" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="259" spans="18:18">
       <c r="R259" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="260" spans="18:18">
       <c r="R260" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="261" spans="18:18">
       <c r="R261" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="262" spans="18:18">
       <c r="R262" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="263" spans="18:18">
       <c r="R263" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="264" spans="18:18">
       <c r="R264" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="265" spans="18:18">
       <c r="R265" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="266" spans="18:18">
       <c r="R266" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="267" spans="18:18">
       <c r="R267" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="268" spans="18:18">
       <c r="R268" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="269" spans="18:18">
       <c r="R269" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="270" spans="18:18">
       <c r="R270" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="271" spans="18:18">
       <c r="R271" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="272" spans="18:18">
       <c r="R272" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="18:18">
       <c r="R273" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="274" spans="18:18">
       <c r="R274" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="275" spans="18:18">
       <c r="R275" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="276" spans="18:18">
       <c r="R276" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="277" spans="18:18">
       <c r="R277" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278" spans="18:18">
       <c r="R278" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="18:18">
       <c r="R279" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="280" spans="18:18">
       <c r="R280" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="18:18">
       <c r="R281" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="282" spans="18:18">
       <c r="R282" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="283" spans="18:18">
       <c r="R283" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="284" spans="18:18">
       <c r="R284" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="285" spans="18:18">
       <c r="R285" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="286" spans="18:18">
       <c r="R286" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="287" spans="18:18">
       <c r="R287" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="288" spans="18:18">
       <c r="R288" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="289" spans="18:18">
       <c r="R289" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -25,7 +25,7 @@
     <definedName name="hosthabitat">'cv_sample'!$AI$1:$AI$7</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$W$1:$W$14</definedName>
     <definedName name="hostsex">'cv_sample'!$X$1:$X$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="656">
   <si>
     <t>alias</t>
   </si>
@@ -725,6 +725,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2541,7 +2544,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2585,7 +2588,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +2615,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3334,6 +3337,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3358,27 +3366,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3401,122 +3409,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3543,240 +3551,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -3820,74 +3828,74 @@
   <sheetData>
     <row r="1" spans="9:39">
       <c r="I1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="R1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="X1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AI1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AM1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="9:39">
       <c r="I2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="W2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="X2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AI2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="9:39">
       <c r="Q3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="W3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="X3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AI3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AM3" t="s">
         <v>116</v>
@@ -3895,22 +3903,22 @@
     </row>
     <row r="4" spans="9:39">
       <c r="Q4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W4" t="s">
+        <v>581</v>
+      </c>
+      <c r="X4" t="s">
         <v>580</v>
       </c>
-      <c r="X4" t="s">
-        <v>579</v>
-      </c>
       <c r="AI4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AM4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="9:39">
@@ -3918,13 +3926,13 @@
         <v>116</v>
       </c>
       <c r="R5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W5" t="s">
+        <v>582</v>
+      </c>
+      <c r="X5" t="s">
         <v>581</v>
-      </c>
-      <c r="X5" t="s">
-        <v>580</v>
       </c>
       <c r="AI5" t="s">
         <v>116</v>
@@ -3932,126 +3940,126 @@
     </row>
     <row r="6" spans="9:39">
       <c r="Q6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W6" t="s">
+        <v>583</v>
+      </c>
+      <c r="X6" t="s">
         <v>582</v>
       </c>
-      <c r="X6" t="s">
-        <v>581</v>
-      </c>
       <c r="AI6" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="9:39">
       <c r="Q7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W7" t="s">
+        <v>584</v>
+      </c>
+      <c r="X7" t="s">
         <v>583</v>
       </c>
-      <c r="X7" t="s">
-        <v>582</v>
-      </c>
       <c r="AI7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="9:39">
       <c r="R8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W8" t="s">
+        <v>585</v>
+      </c>
+      <c r="X8" t="s">
         <v>584</v>
-      </c>
-      <c r="X8" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="9" spans="9:39">
       <c r="R9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W9" t="s">
+        <v>586</v>
+      </c>
+      <c r="X9" t="s">
         <v>585</v>
-      </c>
-      <c r="X9" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="10" spans="9:39">
       <c r="R10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W10" t="s">
+        <v>587</v>
+      </c>
+      <c r="X10" t="s">
         <v>586</v>
-      </c>
-      <c r="X10" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="11" spans="9:39">
       <c r="R11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W11" t="s">
+        <v>588</v>
+      </c>
+      <c r="X11" t="s">
         <v>587</v>
-      </c>
-      <c r="X11" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="12" spans="9:39">
       <c r="R12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="X12" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="9:39">
       <c r="R13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="9:39">
       <c r="R14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W14" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="9:39">
       <c r="R15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X15" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="9:39">
       <c r="R16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X16" t="s">
         <v>116</v>
@@ -4059,1370 +4067,1370 @@
     </row>
     <row r="17" spans="18:24">
       <c r="R17" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X17" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="18:24">
       <c r="R18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="18:24">
       <c r="R19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="18:24">
       <c r="R20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="18:24">
       <c r="R21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="18:24">
       <c r="R22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="18:24">
       <c r="R23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="18:24">
       <c r="R24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="18:24">
       <c r="R25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="18:24">
       <c r="R26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="18:24">
       <c r="R27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="18:24">
       <c r="R28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="18:24">
       <c r="R29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="18:24">
       <c r="R30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="18:24">
       <c r="R31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="18:24">
       <c r="R32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="18:18">
       <c r="R33" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="18:18">
       <c r="R34" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="18:18">
       <c r="R35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="18:18">
       <c r="R36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="18:18">
       <c r="R37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="18:18">
       <c r="R38" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="18:18">
       <c r="R39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="18:18">
       <c r="R40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="18:18">
       <c r="R41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="18:18">
       <c r="R42" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="18:18">
       <c r="R43" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="18:18">
       <c r="R44" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="18:18">
       <c r="R45" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="18:18">
       <c r="R46" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47" spans="18:18">
       <c r="R47" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="48" spans="18:18">
       <c r="R48" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="18:18">
       <c r="R49" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="18:18">
       <c r="R50" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="18:18">
       <c r="R51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="18:18">
       <c r="R52" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="18:18">
       <c r="R53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="18:18">
       <c r="R54" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="55" spans="18:18">
       <c r="R55" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="18:18">
       <c r="R56" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="18:18">
       <c r="R57" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="18:18">
       <c r="R58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="18:18">
       <c r="R59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="18:18">
       <c r="R60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="18:18">
       <c r="R61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="18:18">
       <c r="R62" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="18:18">
       <c r="R63" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="18:18">
       <c r="R64" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="18:18">
       <c r="R65" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="18:18">
       <c r="R66" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="18:18">
       <c r="R67" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="18:18">
       <c r="R68" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="18:18">
       <c r="R69" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="18:18">
       <c r="R70" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="18:18">
       <c r="R71" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="18:18">
       <c r="R72" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="18:18">
       <c r="R73" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="18:18">
       <c r="R74" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="18:18">
       <c r="R75" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="18:18">
       <c r="R76" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="18:18">
       <c r="R77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="18:18">
       <c r="R78" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" spans="18:18">
       <c r="R79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="80" spans="18:18">
       <c r="R80" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="81" spans="18:18">
       <c r="R81" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="18:18">
       <c r="R82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="18:18">
       <c r="R83" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="18:18">
       <c r="R84" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="85" spans="18:18">
       <c r="R85" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="18:18">
       <c r="R86" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="87" spans="18:18">
       <c r="R87" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="88" spans="18:18">
       <c r="R88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="18:18">
       <c r="R89" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="90" spans="18:18">
       <c r="R90" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="18:18">
       <c r="R91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92" spans="18:18">
       <c r="R92" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="18:18">
       <c r="R93" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94" spans="18:18">
       <c r="R94" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="18:18">
       <c r="R95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="18:18">
       <c r="R96" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="18:18">
       <c r="R97" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="98" spans="18:18">
       <c r="R98" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="18:18">
       <c r="R99" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="18:18">
       <c r="R100" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="18:18">
       <c r="R101" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="18:18">
       <c r="R102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="18:18">
       <c r="R103" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="18:18">
       <c r="R104" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="105" spans="18:18">
       <c r="R105" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="106" spans="18:18">
       <c r="R106" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="107" spans="18:18">
       <c r="R107" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="18:18">
       <c r="R108" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="109" spans="18:18">
       <c r="R109" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="18:18">
       <c r="R110" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="111" spans="18:18">
       <c r="R111" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="112" spans="18:18">
       <c r="R112" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113" spans="18:18">
       <c r="R113" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="114" spans="18:18">
       <c r="R114" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="115" spans="18:18">
       <c r="R115" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="116" spans="18:18">
       <c r="R116" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="18:18">
       <c r="R117" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="118" spans="18:18">
       <c r="R118" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="18:18">
       <c r="R119" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="120" spans="18:18">
       <c r="R120" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="18:18">
       <c r="R121" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="18:18">
       <c r="R122" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" spans="18:18">
       <c r="R123" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="18:18">
       <c r="R124" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="18:18">
       <c r="R125" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="18:18">
       <c r="R126" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="18:18">
       <c r="R127" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="18:18">
       <c r="R128" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" spans="18:18">
       <c r="R129" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" spans="18:18">
       <c r="R130" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="131" spans="18:18">
       <c r="R131" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="132" spans="18:18">
       <c r="R132" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="18:18">
       <c r="R133" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="134" spans="18:18">
       <c r="R134" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" spans="18:18">
       <c r="R135" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="136" spans="18:18">
       <c r="R136" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="137" spans="18:18">
       <c r="R137" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="138" spans="18:18">
       <c r="R138" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="139" spans="18:18">
       <c r="R139" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="140" spans="18:18">
       <c r="R140" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="18:18">
       <c r="R141" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="18:18">
       <c r="R142" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="18:18">
       <c r="R143" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="144" spans="18:18">
       <c r="R144" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="18:18">
       <c r="R145" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="18:18">
       <c r="R146" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="18:18">
       <c r="R147" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="148" spans="18:18">
       <c r="R148" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" spans="18:18">
       <c r="R149" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="18:18">
       <c r="R150" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="151" spans="18:18">
       <c r="R151" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="18:18">
       <c r="R152" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="153" spans="18:18">
       <c r="R153" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" spans="18:18">
       <c r="R154" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155" spans="18:18">
       <c r="R155" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="156" spans="18:18">
       <c r="R156" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="157" spans="18:18">
       <c r="R157" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" spans="18:18">
       <c r="R158" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159" spans="18:18">
       <c r="R159" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="160" spans="18:18">
       <c r="R160" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="161" spans="18:18">
       <c r="R161" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="162" spans="18:18">
       <c r="R162" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" spans="18:18">
       <c r="R163" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" spans="18:18">
       <c r="R164" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="165" spans="18:18">
       <c r="R165" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" spans="18:18">
       <c r="R166" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="167" spans="18:18">
       <c r="R167" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="168" spans="18:18">
       <c r="R168" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="169" spans="18:18">
       <c r="R169" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="170" spans="18:18">
       <c r="R170" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="18:18">
       <c r="R171" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="172" spans="18:18">
       <c r="R172" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="173" spans="18:18">
       <c r="R173" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="18:18">
       <c r="R174" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="175" spans="18:18">
       <c r="R175" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="176" spans="18:18">
       <c r="R176" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="18:18">
       <c r="R177" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" spans="18:18">
       <c r="R178" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="18:18">
       <c r="R179" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="180" spans="18:18">
       <c r="R180" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="181" spans="18:18">
       <c r="R181" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" spans="18:18">
       <c r="R182" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="183" spans="18:18">
       <c r="R183" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" spans="18:18">
       <c r="R184" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" spans="18:18">
       <c r="R185" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="186" spans="18:18">
       <c r="R186" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="187" spans="18:18">
       <c r="R187" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="188" spans="18:18">
       <c r="R188" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="189" spans="18:18">
       <c r="R189" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="190" spans="18:18">
       <c r="R190" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="191" spans="18:18">
       <c r="R191" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="192" spans="18:18">
       <c r="R192" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="18:18">
       <c r="R193" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" spans="18:18">
       <c r="R194" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="195" spans="18:18">
       <c r="R195" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="196" spans="18:18">
       <c r="R196" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="197" spans="18:18">
       <c r="R197" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="18:18">
       <c r="R198" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="18:18">
       <c r="R199" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="200" spans="18:18">
       <c r="R200" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" spans="18:18">
       <c r="R201" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="202" spans="18:18">
       <c r="R202" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="203" spans="18:18">
       <c r="R203" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="204" spans="18:18">
       <c r="R204" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="205" spans="18:18">
       <c r="R205" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" spans="18:18">
       <c r="R206" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="207" spans="18:18">
       <c r="R207" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="208" spans="18:18">
       <c r="R208" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="209" spans="18:18">
       <c r="R209" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="210" spans="18:18">
       <c r="R210" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="211" spans="18:18">
       <c r="R211" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="212" spans="18:18">
       <c r="R212" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="213" spans="18:18">
       <c r="R213" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="214" spans="18:18">
       <c r="R214" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="215" spans="18:18">
       <c r="R215" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="216" spans="18:18">
       <c r="R216" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="217" spans="18:18">
       <c r="R217" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="218" spans="18:18">
       <c r="R218" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="219" spans="18:18">
       <c r="R219" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="220" spans="18:18">
       <c r="R220" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="221" spans="18:18">
       <c r="R221" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="222" spans="18:18">
       <c r="R222" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="223" spans="18:18">
       <c r="R223" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="224" spans="18:18">
       <c r="R224" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="225" spans="18:18">
       <c r="R225" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="226" spans="18:18">
       <c r="R226" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="227" spans="18:18">
       <c r="R227" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="228" spans="18:18">
       <c r="R228" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="229" spans="18:18">
       <c r="R229" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="230" spans="18:18">
       <c r="R230" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="231" spans="18:18">
       <c r="R231" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="232" spans="18:18">
       <c r="R232" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="233" spans="18:18">
       <c r="R233" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="234" spans="18:18">
       <c r="R234" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="235" spans="18:18">
       <c r="R235" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="236" spans="18:18">
       <c r="R236" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="237" spans="18:18">
       <c r="R237" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="238" spans="18:18">
       <c r="R238" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="239" spans="18:18">
       <c r="R239" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="240" spans="18:18">
       <c r="R240" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="241" spans="18:18">
       <c r="R241" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="242" spans="18:18">
       <c r="R242" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="243" spans="18:18">
       <c r="R243" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="244" spans="18:18">
       <c r="R244" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="245" spans="18:18">
       <c r="R245" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="246" spans="18:18">
       <c r="R246" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="247" spans="18:18">
       <c r="R247" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="248" spans="18:18">
       <c r="R248" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="249" spans="18:18">
       <c r="R249" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="250" spans="18:18">
       <c r="R250" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="251" spans="18:18">
       <c r="R251" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="252" spans="18:18">
       <c r="R252" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="253" spans="18:18">
       <c r="R253" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254" spans="18:18">
       <c r="R254" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="255" spans="18:18">
       <c r="R255" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="256" spans="18:18">
       <c r="R256" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="257" spans="18:18">
       <c r="R257" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="258" spans="18:18">
       <c r="R258" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="259" spans="18:18">
       <c r="R259" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="260" spans="18:18">
       <c r="R260" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="261" spans="18:18">
       <c r="R261" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="262" spans="18:18">
       <c r="R262" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263" spans="18:18">
       <c r="R263" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="264" spans="18:18">
       <c r="R264" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="265" spans="18:18">
       <c r="R265" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="266" spans="18:18">
       <c r="R266" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="267" spans="18:18">
       <c r="R267" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="268" spans="18:18">
       <c r="R268" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="269" spans="18:18">
       <c r="R269" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="270" spans="18:18">
       <c r="R270" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="271" spans="18:18">
       <c r="R271" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="18:18">
       <c r="R272" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="273" spans="18:18">
       <c r="R273" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="274" spans="18:18">
       <c r="R274" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="275" spans="18:18">
       <c r="R275" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="276" spans="18:18">
       <c r="R276" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="277" spans="18:18">
       <c r="R277" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="18:18">
       <c r="R278" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="279" spans="18:18">
       <c r="R279" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="18:18">
       <c r="R280" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="281" spans="18:18">
       <c r="R281" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="282" spans="18:18">
       <c r="R282" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="283" spans="18:18">
       <c r="R283" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="284" spans="18:18">
       <c r="R284" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="285" spans="18:18">
       <c r="R285" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="286" spans="18:18">
       <c r="R286" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="287" spans="18:18">
       <c r="R287" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="288" spans="18:18">
       <c r="R288" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="289" spans="18:18">
       <c r="R289" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -25,7 +25,7 @@
     <definedName name="hosthabitat">'cv_sample'!$AI$1:$AI$7</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$W$1:$W$14</definedName>
     <definedName name="hostsex">'cv_sample'!$X$1:$X$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="657">
   <si>
     <t>alias</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2544,7 +2547,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2588,7 +2591,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +2618,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3342,6 +3345,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3366,27 +3374,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3409,122 +3417,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3551,240 +3559,240 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -3828,74 +3836,74 @@
   <sheetData>
     <row r="1" spans="9:39">
       <c r="I1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="R1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="W1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="X1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AI1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="9:39">
       <c r="I2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="S2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="W2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="X2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AI2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AM2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="9:39">
       <c r="Q3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="R3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="S3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="W3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="X3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AI3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AM3" t="s">
         <v>116</v>
@@ -3903,22 +3911,22 @@
     </row>
     <row r="4" spans="9:39">
       <c r="Q4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W4" t="s">
+        <v>582</v>
+      </c>
+      <c r="X4" t="s">
         <v>581</v>
       </c>
-      <c r="X4" t="s">
-        <v>580</v>
-      </c>
       <c r="AI4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AM4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="9:39">
@@ -3926,13 +3934,13 @@
         <v>116</v>
       </c>
       <c r="R5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W5" t="s">
+        <v>583</v>
+      </c>
+      <c r="X5" t="s">
         <v>582</v>
-      </c>
-      <c r="X5" t="s">
-        <v>581</v>
       </c>
       <c r="AI5" t="s">
         <v>116</v>
@@ -3940,126 +3948,126 @@
     </row>
     <row r="6" spans="9:39">
       <c r="Q6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W6" t="s">
+        <v>584</v>
+      </c>
+      <c r="X6" t="s">
         <v>583</v>
       </c>
-      <c r="X6" t="s">
-        <v>582</v>
-      </c>
       <c r="AI6" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="9:39">
       <c r="Q7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="R7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W7" t="s">
+        <v>585</v>
+      </c>
+      <c r="X7" t="s">
         <v>584</v>
       </c>
-      <c r="X7" t="s">
-        <v>583</v>
-      </c>
       <c r="AI7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="9:39">
       <c r="R8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W8" t="s">
+        <v>586</v>
+      </c>
+      <c r="X8" t="s">
         <v>585</v>
-      </c>
-      <c r="X8" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="9" spans="9:39">
       <c r="R9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W9" t="s">
+        <v>587</v>
+      </c>
+      <c r="X9" t="s">
         <v>586</v>
-      </c>
-      <c r="X9" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="10" spans="9:39">
       <c r="R10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W10" t="s">
+        <v>588</v>
+      </c>
+      <c r="X10" t="s">
         <v>587</v>
-      </c>
-      <c r="X10" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="11" spans="9:39">
       <c r="R11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W11" t="s">
+        <v>589</v>
+      </c>
+      <c r="X11" t="s">
         <v>588</v>
-      </c>
-      <c r="X11" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="12" spans="9:39">
       <c r="R12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="X12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="9:39">
       <c r="R13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="W13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="9:39">
       <c r="R14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="X14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="9:39">
       <c r="R15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X15" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="9:39">
       <c r="R16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="X16" t="s">
         <v>116</v>
@@ -4067,1370 +4075,1370 @@
     </row>
     <row r="17" spans="18:24">
       <c r="R17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="X17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="18:24">
       <c r="R18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="18:24">
       <c r="R19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="18:24">
       <c r="R20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="18:24">
       <c r="R21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="18:24">
       <c r="R22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="18:24">
       <c r="R23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="18:24">
       <c r="R24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="18:24">
       <c r="R25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="18:24">
       <c r="R26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="18:24">
       <c r="R27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="18:24">
       <c r="R28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="18:24">
       <c r="R29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="18:24">
       <c r="R30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="18:24">
       <c r="R31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="18:24">
       <c r="R32" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="18:18">
       <c r="R33" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="18:18">
       <c r="R34" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="18:18">
       <c r="R35" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="18:18">
       <c r="R36" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="18:18">
       <c r="R37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="18:18">
       <c r="R38" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="18:18">
       <c r="R39" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="18:18">
       <c r="R40" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="18:18">
       <c r="R41" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="18:18">
       <c r="R42" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="18:18">
       <c r="R43" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="18:18">
       <c r="R44" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="18:18">
       <c r="R45" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="18:18">
       <c r="R46" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="18:18">
       <c r="R47" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="18:18">
       <c r="R48" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="18:18">
       <c r="R49" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" spans="18:18">
       <c r="R50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="18:18">
       <c r="R51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="18:18">
       <c r="R52" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="53" spans="18:18">
       <c r="R53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="18:18">
       <c r="R54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="18:18">
       <c r="R55" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="18:18">
       <c r="R56" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="18:18">
       <c r="R57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="18:18">
       <c r="R58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="18:18">
       <c r="R59" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="18:18">
       <c r="R60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="18:18">
       <c r="R61" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="18:18">
       <c r="R62" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="18:18">
       <c r="R63" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="18:18">
       <c r="R64" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="18:18">
       <c r="R65" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="18:18">
       <c r="R66" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="67" spans="18:18">
       <c r="R67" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="18:18">
       <c r="R68" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="18:18">
       <c r="R69" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="18:18">
       <c r="R70" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="18:18">
       <c r="R71" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="18:18">
       <c r="R72" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="18:18">
       <c r="R73" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="18:18">
       <c r="R74" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="18:18">
       <c r="R75" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="18:18">
       <c r="R76" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="18:18">
       <c r="R77" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="18:18">
       <c r="R78" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="79" spans="18:18">
       <c r="R79" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="18:18">
       <c r="R80" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="18:18">
       <c r="R81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="18:18">
       <c r="R82" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="18:18">
       <c r="R83" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="18:18">
       <c r="R84" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="85" spans="18:18">
       <c r="R85" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="18:18">
       <c r="R86" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="18:18">
       <c r="R87" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="18:18">
       <c r="R88" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="18:18">
       <c r="R89" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="18:18">
       <c r="R90" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="18:18">
       <c r="R91" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="18:18">
       <c r="R92" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="18:18">
       <c r="R93" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" spans="18:18">
       <c r="R94" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="95" spans="18:18">
       <c r="R95" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="18:18">
       <c r="R96" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="18:18">
       <c r="R97" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="18:18">
       <c r="R98" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="18:18">
       <c r="R99" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="18:18">
       <c r="R100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="18:18">
       <c r="R101" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="102" spans="18:18">
       <c r="R102" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="18:18">
       <c r="R103" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="104" spans="18:18">
       <c r="R104" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="105" spans="18:18">
       <c r="R105" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="18:18">
       <c r="R106" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="107" spans="18:18">
       <c r="R107" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="18:18">
       <c r="R108" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="18:18">
       <c r="R109" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="110" spans="18:18">
       <c r="R110" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="111" spans="18:18">
       <c r="R111" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="112" spans="18:18">
       <c r="R112" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="113" spans="18:18">
       <c r="R113" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="114" spans="18:18">
       <c r="R114" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115" spans="18:18">
       <c r="R115" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="18:18">
       <c r="R116" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="18:18">
       <c r="R117" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="18:18">
       <c r="R118" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="119" spans="18:18">
       <c r="R119" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="18:18">
       <c r="R120" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="18:18">
       <c r="R121" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="122" spans="18:18">
       <c r="R122" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="18:18">
       <c r="R123" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="18:18">
       <c r="R124" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="18:18">
       <c r="R125" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="18:18">
       <c r="R126" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="18:18">
       <c r="R127" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" spans="18:18">
       <c r="R128" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="129" spans="18:18">
       <c r="R129" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="130" spans="18:18">
       <c r="R130" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="131" spans="18:18">
       <c r="R131" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" spans="18:18">
       <c r="R132" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="18:18">
       <c r="R133" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="18:18">
       <c r="R134" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="135" spans="18:18">
       <c r="R135" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" spans="18:18">
       <c r="R136" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="18:18">
       <c r="R137" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="18:18">
       <c r="R138" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="139" spans="18:18">
       <c r="R139" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="18:18">
       <c r="R140" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="18:18">
       <c r="R141" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="142" spans="18:18">
       <c r="R142" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="18:18">
       <c r="R143" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="144" spans="18:18">
       <c r="R144" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="145" spans="18:18">
       <c r="R145" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="18:18">
       <c r="R146" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="18:18">
       <c r="R147" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="148" spans="18:18">
       <c r="R148" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149" spans="18:18">
       <c r="R149" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="18:18">
       <c r="R150" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="151" spans="18:18">
       <c r="R151" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="152" spans="18:18">
       <c r="R152" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="153" spans="18:18">
       <c r="R153" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="18:18">
       <c r="R154" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="155" spans="18:18">
       <c r="R155" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="156" spans="18:18">
       <c r="R156" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="157" spans="18:18">
       <c r="R157" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="18:18">
       <c r="R158" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="18:18">
       <c r="R159" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="18:18">
       <c r="R160" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="18:18">
       <c r="R161" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="162" spans="18:18">
       <c r="R162" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="18:18">
       <c r="R163" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="164" spans="18:18">
       <c r="R164" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="18:18">
       <c r="R165" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="18:18">
       <c r="R166" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="167" spans="18:18">
       <c r="R167" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="168" spans="18:18">
       <c r="R168" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="169" spans="18:18">
       <c r="R169" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="170" spans="18:18">
       <c r="R170" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="18:18">
       <c r="R171" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="172" spans="18:18">
       <c r="R172" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="173" spans="18:18">
       <c r="R173" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="174" spans="18:18">
       <c r="R174" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="18:18">
       <c r="R175" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176" spans="18:18">
       <c r="R176" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="177" spans="18:18">
       <c r="R177" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="178" spans="18:18">
       <c r="R178" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="18:18">
       <c r="R179" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="18:18">
       <c r="R180" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="18:18">
       <c r="R181" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="18:18">
       <c r="R182" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="18:18">
       <c r="R183" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="18:18">
       <c r="R184" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="185" spans="18:18">
       <c r="R185" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="186" spans="18:18">
       <c r="R186" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="187" spans="18:18">
       <c r="R187" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="188" spans="18:18">
       <c r="R188" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="18:18">
       <c r="R189" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="18:18">
       <c r="R190" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="18:18">
       <c r="R191" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="18:18">
       <c r="R192" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="18:18">
       <c r="R193" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" spans="18:18">
       <c r="R194" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="195" spans="18:18">
       <c r="R195" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="196" spans="18:18">
       <c r="R196" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="197" spans="18:18">
       <c r="R197" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="18:18">
       <c r="R198" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="199" spans="18:18">
       <c r="R199" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200" spans="18:18">
       <c r="R200" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="201" spans="18:18">
       <c r="R201" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="202" spans="18:18">
       <c r="R202" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="203" spans="18:18">
       <c r="R203" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="204" spans="18:18">
       <c r="R204" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="205" spans="18:18">
       <c r="R205" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="206" spans="18:18">
       <c r="R206" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="207" spans="18:18">
       <c r="R207" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="208" spans="18:18">
       <c r="R208" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="209" spans="18:18">
       <c r="R209" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="210" spans="18:18">
       <c r="R210" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="211" spans="18:18">
       <c r="R211" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="212" spans="18:18">
       <c r="R212" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="213" spans="18:18">
       <c r="R213" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="214" spans="18:18">
       <c r="R214" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="215" spans="18:18">
       <c r="R215" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="216" spans="18:18">
       <c r="R216" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="217" spans="18:18">
       <c r="R217" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="218" spans="18:18">
       <c r="R218" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="219" spans="18:18">
       <c r="R219" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="220" spans="18:18">
       <c r="R220" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="221" spans="18:18">
       <c r="R221" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="222" spans="18:18">
       <c r="R222" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="223" spans="18:18">
       <c r="R223" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="224" spans="18:18">
       <c r="R224" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="225" spans="18:18">
       <c r="R225" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="226" spans="18:18">
       <c r="R226" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="227" spans="18:18">
       <c r="R227" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="228" spans="18:18">
       <c r="R228" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="229" spans="18:18">
       <c r="R229" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="230" spans="18:18">
       <c r="R230" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="231" spans="18:18">
       <c r="R231" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="232" spans="18:18">
       <c r="R232" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="233" spans="18:18">
       <c r="R233" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="234" spans="18:18">
       <c r="R234" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="235" spans="18:18">
       <c r="R235" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="236" spans="18:18">
       <c r="R236" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="237" spans="18:18">
       <c r="R237" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="238" spans="18:18">
       <c r="R238" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="239" spans="18:18">
       <c r="R239" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="240" spans="18:18">
       <c r="R240" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="241" spans="18:18">
       <c r="R241" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="242" spans="18:18">
       <c r="R242" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="243" spans="18:18">
       <c r="R243" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="18:18">
       <c r="R244" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="245" spans="18:18">
       <c r="R245" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="246" spans="18:18">
       <c r="R246" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="247" spans="18:18">
       <c r="R247" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="248" spans="18:18">
       <c r="R248" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="249" spans="18:18">
       <c r="R249" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="250" spans="18:18">
       <c r="R250" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="251" spans="18:18">
       <c r="R251" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="252" spans="18:18">
       <c r="R252" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="253" spans="18:18">
       <c r="R253" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="254" spans="18:18">
       <c r="R254" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="255" spans="18:18">
       <c r="R255" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="256" spans="18:18">
       <c r="R256" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="257" spans="18:18">
       <c r="R257" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="258" spans="18:18">
       <c r="R258" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="259" spans="18:18">
       <c r="R259" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="260" spans="18:18">
       <c r="R260" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="261" spans="18:18">
       <c r="R261" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="262" spans="18:18">
       <c r="R262" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="263" spans="18:18">
       <c r="R263" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="264" spans="18:18">
       <c r="R264" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="265" spans="18:18">
       <c r="R265" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="266" spans="18:18">
       <c r="R266" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="267" spans="18:18">
       <c r="R267" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="268" spans="18:18">
       <c r="R268" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="18:18">
       <c r="R269" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="270" spans="18:18">
       <c r="R270" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="271" spans="18:18">
       <c r="R271" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="272" spans="18:18">
       <c r="R272" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="273" spans="18:18">
       <c r="R273" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="274" spans="18:18">
       <c r="R274" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="275" spans="18:18">
       <c r="R275" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="276" spans="18:18">
       <c r="R276" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277" spans="18:18">
       <c r="R277" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="278" spans="18:18">
       <c r="R278" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="18:18">
       <c r="R279" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="280" spans="18:18">
       <c r="R280" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="281" spans="18:18">
       <c r="R281" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="282" spans="18:18">
       <c r="R282" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="283" spans="18:18">
       <c r="R283" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="284" spans="18:18">
       <c r="R284" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="285" spans="18:18">
       <c r="R285" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="286" spans="18:18">
       <c r="R286" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="287" spans="18:18">
       <c r="R287" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="288" spans="18:18">
       <c r="R288" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="289" spans="18:18">
       <c r="R289" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$R$1:$R$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$R$1:$R$294</definedName>
     <definedName name="hospitalisation">'cv_sample'!$I$1:$I$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$AM$1:$AM$4</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$S$1:$S$3</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="662">
   <si>
     <t>alias</t>
   </si>
@@ -850,25 +850,25 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample storage conditions</t>
+    <t>sample_storage_conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>subject exposure</t>
+    <t>subject_exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
   </si>
   <si>
-    <t>type exposure</t>
+    <t>type_exposure</t>
   </si>
   <si>
     <t>(Optional) Setting within which the subject is exposed to animals, such as farm, slaughterhouse, food preparation. if multiple exposures are applicable, please state their type in the same order in which you reported the exposure in the field 'subject exposure'. example: backyard flock; confined animal feeding operation</t>
   </si>
   <si>
-    <t>personal protective equipment</t>
+    <t>personal_protective_equipment</t>
   </si>
   <si>
     <t>(Optional) Use of personal protective equipment, such as gloves, gowns, during any type of exposure. example: mask</t>
@@ -886,46 +886,46 @@
     <t>(Optional) Was the subject confined to a hospital as a result of virus infection or problems occurring secondary to virus infection?</t>
   </si>
   <si>
-    <t>illness duration</t>
+    <t>illness_duration</t>
   </si>
   <si>
     <t>(Optional) The number of days the illness lasted. example: 4</t>
   </si>
   <si>
-    <t>illness symptoms</t>
+    <t>illness_symptoms</t>
   </si>
   <si>
     <t>(Optional) The symptoms that have been reported in relation to the illness, such as cough, diarrhea, fever, headache, malaise, myalgia, nausea, runny_nose, shortness_of_breath, sore_throat. if multiple exposures are applicable, please state them separated by semicolon.</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>subject exposure duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>subject_exposure_duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
   </si>
   <si>
     <t>active surveillance in response to outbreak</t>
@@ -946,7 +946,7 @@
     <t>zoo sample</t>
   </si>
   <si>
-    <t>sample capture status</t>
+    <t>sample_capture_status</t>
   </si>
   <si>
     <t>(Recommended) Reason for the sample collection.</t>
@@ -1165,9 +1165,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1186,6 +1183,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1387,6 +1387,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1396,9 +1399,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1438,7 +1438,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1507,6 +1507,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1582,6 +1585,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1603,6 +1609,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1648,6 +1657,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1660,6 +1672,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1669,9 +1684,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1696,6 +1708,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1756,12 +1771,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1819,7 +1834,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1834,25 +1849,25 @@
     <t>recovered with sequelae</t>
   </si>
   <si>
-    <t>host disease outcome</t>
+    <t>host_disease_outcome</t>
   </si>
   <si>
     <t>(Recommended) Disease outcome in the host.</t>
   </si>
   <si>
-    <t>host common name</t>
+    <t>host_common_name</t>
   </si>
   <si>
     <t>(Mandatory) Common name of the host, e.g. human</t>
   </si>
   <si>
-    <t>host subject id</t>
+    <t>host_subject_id</t>
   </si>
   <si>
     <t>(Mandatory) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
   </si>
   <si>
-    <t>host age</t>
+    <t>host_age</t>
   </si>
   <si>
     <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
@@ -1864,7 +1879,7 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>host health state</t>
+    <t>host_health_state</t>
   </si>
   <si>
     <t>(Mandatory) Health status of the host at the time of sample collection.</t>
@@ -1882,7 +1897,7 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host sex</t>
+    <t>host_sex</t>
   </si>
   <si>
     <t>(Mandatory) Gender or sex of the host.</t>
@@ -1894,43 +1909,43 @@
     <t>(Optional) Scientific name of the laboratory host used to propagate the source organism from which the sample was obtained</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>virus identifier</t>
+    <t>virus_identifier</t>
   </si>
   <si>
     <t>(Recommended) Unique laboratory identifier assigned to the virus by the investigator. strain name is not sufficient since it might not be unique due to various passsages of the same virus. format: up to 50 alphanumeric characters</t>
   </si>
   <si>
-    <t>collector name</t>
+    <t>collector_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the person who collected the specimen. example: john smith</t>
   </si>
   <si>
-    <t>collecting institution</t>
+    <t>collecting_institution</t>
   </si>
   <si>
     <t>(Mandatory) Name of the institution to which the person collecting the specimen belongs. format: institute name, institute address</t>
   </si>
   <si>
-    <t>receipt date</t>
+    <t>receipt_date</t>
   </si>
   <si>
     <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
   </si>
   <si>
-    <t>definition for seropositive sample</t>
+    <t>definition_for_seropositive_sample</t>
   </si>
   <si>
     <t>(Recommended) The cut off value used by an investigatior in determining that a sample was seropositive.</t>
   </si>
   <si>
-    <t>serotype (required for a seropositive sample)</t>
+    <t>serotype_required_for_a_seropositive_sample</t>
   </si>
   <si>
     <t>(Recommended) Serological variety of a species characterised by its antigenic properties. for influenza, ha subtype should be the letter h followed by a number between 1-16 unless novel subtype is identified and the na subtype should be the letter n followed by a number between 1-9 unless novel subtype is identified. if only one of the subtypes have been tested then use the format h5nx or hxn1. example: h1n1</t>
@@ -1966,19 +1981,19 @@
     <t>wild:resident</t>
   </si>
   <si>
-    <t>host habitat</t>
+    <t>host_habitat</t>
   </si>
   <si>
     <t>(Recommended) Natural habitat of the avian or mammalian host.</t>
   </si>
   <si>
-    <t>isolation source host-associated</t>
+    <t>isolation_source_hostassociated</t>
   </si>
   <si>
     <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
   </si>
   <si>
-    <t>host description</t>
+    <t>host_description</t>
   </si>
   <si>
     <t>(Optional) Other descriptive information relating to the host.</t>
@@ -1999,13 +2014,13 @@
     <t>wild</t>
   </si>
   <si>
-    <t>host behaviour</t>
+    <t>host_behaviour</t>
   </si>
   <si>
     <t>(Recommended) Natural behaviour of the host.</t>
   </si>
   <si>
-    <t>isolation source non-host-associated</t>
+    <t>isolation_source_nonhostassociated</t>
   </si>
   <si>
     <t>(Recommended) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived. example: soil</t>
@@ -3604,73 +3619,73 @@
         <v>302</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
@@ -3726,73 +3741,73 @@
         <v>303</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -3828,7 +3843,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:AM289"/>
+  <dimension ref="I1:AM294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3845,19 +3860,19 @@
         <v>304</v>
       </c>
       <c r="S1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="W1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="X1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="AI1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AM1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="9:39">
@@ -3871,19 +3886,19 @@
         <v>305</v>
       </c>
       <c r="S2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="W2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="X2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="AI2" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AM2" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="9:39">
@@ -3894,16 +3909,16 @@
         <v>306</v>
       </c>
       <c r="S3" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="W3" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="X3" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AI3" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AM3" t="s">
         <v>116</v>
@@ -3917,16 +3932,16 @@
         <v>307</v>
       </c>
       <c r="W4" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="X4" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AI4" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="AM4" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="9:39">
@@ -3937,10 +3952,10 @@
         <v>308</v>
       </c>
       <c r="W5" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="X5" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AI5" t="s">
         <v>116</v>
@@ -3954,13 +3969,13 @@
         <v>309</v>
       </c>
       <c r="W6" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="X6" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AI6" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="9:39">
@@ -3971,13 +3986,13 @@
         <v>310</v>
       </c>
       <c r="W7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="X7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AI7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="9:39">
@@ -3985,10 +4000,10 @@
         <v>311</v>
       </c>
       <c r="W8" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="X8" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="9:39">
@@ -3996,10 +4011,10 @@
         <v>312</v>
       </c>
       <c r="W9" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="X9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="9:39">
@@ -4007,10 +4022,10 @@
         <v>313</v>
       </c>
       <c r="W10" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="X10" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="9:39">
@@ -4018,10 +4033,10 @@
         <v>314</v>
       </c>
       <c r="W11" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="X11" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="9:39">
@@ -4029,10 +4044,10 @@
         <v>315</v>
       </c>
       <c r="W12" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="X12" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="9:39">
@@ -4040,10 +4055,10 @@
         <v>316</v>
       </c>
       <c r="W13" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="X13" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="9:39">
@@ -4051,10 +4066,10 @@
         <v>317</v>
       </c>
       <c r="W14" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="X14" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="9:39">
@@ -4062,7 +4077,7 @@
         <v>318</v>
       </c>
       <c r="X15" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="9:39">
@@ -4078,7 +4093,7 @@
         <v>320</v>
       </c>
       <c r="X17" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="18:24">
@@ -5439,6 +5454,31 @@
     <row r="289" spans="18:18">
       <c r="R289" t="s">
         <v>592</v>
+      </c>
+    </row>
+    <row r="290" spans="18:18">
+      <c r="R290" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="291" spans="18:18">
+      <c r="R291" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="292" spans="18:18">
+      <c r="R292" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="293" spans="18:18">
+      <c r="R293" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="294" spans="18:18">
+      <c r="R294" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$R$1:$R$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$R$1:$R$289</definedName>
     <definedName name="hospitalisation">'cv_sample'!$I$1:$I$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$AM$1:$AM$4</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$S$1:$S$3</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="657">
   <si>
     <t>alias</t>
   </si>
@@ -850,25 +850,25 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample_storage_conditions</t>
+    <t>sample storage conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>subject_exposure</t>
+    <t>subject exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
   </si>
   <si>
-    <t>type_exposure</t>
+    <t>type exposure</t>
   </si>
   <si>
     <t>(Optional) Setting within which the subject is exposed to animals, such as farm, slaughterhouse, food preparation. if multiple exposures are applicable, please state their type in the same order in which you reported the exposure in the field 'subject exposure'. example: backyard flock; confined animal feeding operation</t>
   </si>
   <si>
-    <t>personal_protective_equipment</t>
+    <t>personal protective equipment</t>
   </si>
   <si>
     <t>(Optional) Use of personal protective equipment, such as gloves, gowns, during any type of exposure. example: mask</t>
@@ -886,46 +886,46 @@
     <t>(Optional) Was the subject confined to a hospital as a result of virus infection or problems occurring secondary to virus infection?</t>
   </si>
   <si>
-    <t>illness_duration</t>
+    <t>illness duration</t>
   </si>
   <si>
     <t>(Optional) The number of days the illness lasted. example: 4</t>
   </si>
   <si>
-    <t>illness_symptoms</t>
+    <t>illness symptoms</t>
   </si>
   <si>
     <t>(Optional) The symptoms that have been reported in relation to the illness, such as cough, diarrhea, fever, headache, malaise, myalgia, nausea, runny_nose, shortness_of_breath, sore_throat. if multiple exposures are applicable, please state them separated by semicolon.</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>subject_exposure_duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
+    <t>subject exposure duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
   </si>
   <si>
     <t>active surveillance in response to outbreak</t>
@@ -946,7 +946,7 @@
     <t>zoo sample</t>
   </si>
   <si>
-    <t>sample_capture_status</t>
+    <t>sample capture status</t>
   </si>
   <si>
     <t>(Recommended) Reason for the sample collection.</t>
@@ -1165,6 +1165,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1183,9 +1186,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1387,9 +1387,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1399,6 +1396,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1438,7 +1438,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1507,9 +1507,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1585,9 +1582,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1609,9 +1603,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1657,9 +1648,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1672,9 +1660,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1684,6 +1669,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1708,9 +1696,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1771,12 +1756,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1834,7 +1819,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1849,25 +1834,25 @@
     <t>recovered with sequelae</t>
   </si>
   <si>
-    <t>host_disease_outcome</t>
+    <t>host disease outcome</t>
   </si>
   <si>
     <t>(Recommended) Disease outcome in the host.</t>
   </si>
   <si>
-    <t>host_common_name</t>
+    <t>host common name</t>
   </si>
   <si>
     <t>(Mandatory) Common name of the host, e.g. human</t>
   </si>
   <si>
-    <t>host_subject_id</t>
+    <t>host subject id</t>
   </si>
   <si>
     <t>(Mandatory) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
   </si>
   <si>
-    <t>host_age</t>
+    <t>host age</t>
   </si>
   <si>
     <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
@@ -1879,7 +1864,7 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>host_health_state</t>
+    <t>host health state</t>
   </si>
   <si>
     <t>(Mandatory) Health status of the host at the time of sample collection.</t>
@@ -1897,7 +1882,7 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host_sex</t>
+    <t>host sex</t>
   </si>
   <si>
     <t>(Mandatory) Gender or sex of the host.</t>
@@ -1909,43 +1894,43 @@
     <t>(Optional) Scientific name of the laboratory host used to propagate the source organism from which the sample was obtained</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>virus_identifier</t>
+    <t>virus identifier</t>
   </si>
   <si>
     <t>(Recommended) Unique laboratory identifier assigned to the virus by the investigator. strain name is not sufficient since it might not be unique due to various passsages of the same virus. format: up to 50 alphanumeric characters</t>
   </si>
   <si>
-    <t>collector_name</t>
+    <t>collector name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the person who collected the specimen. example: john smith</t>
   </si>
   <si>
-    <t>collecting_institution</t>
+    <t>collecting institution</t>
   </si>
   <si>
     <t>(Mandatory) Name of the institution to which the person collecting the specimen belongs. format: institute name, institute address</t>
   </si>
   <si>
-    <t>receipt_date</t>
+    <t>receipt date</t>
   </si>
   <si>
     <t>(Recommended) Date on which the sample was received. format:yyyy-mm-dd. please provide the highest precision possible. if the sample was received by the institution and not collected, the 'receipt date' must be provided instead. either the 'collection date' or 'receipt date' must be provided. if available, provide both dates.</t>
   </si>
   <si>
-    <t>definition_for_seropositive_sample</t>
+    <t>definition for seropositive sample</t>
   </si>
   <si>
     <t>(Recommended) The cut off value used by an investigatior in determining that a sample was seropositive.</t>
   </si>
   <si>
-    <t>serotype_required_for_a_seropositive_sample</t>
+    <t>serotype (required for a seropositive sample)</t>
   </si>
   <si>
     <t>(Recommended) Serological variety of a species characterised by its antigenic properties. for influenza, ha subtype should be the letter h followed by a number between 1-16 unless novel subtype is identified and the na subtype should be the letter n followed by a number between 1-9 unless novel subtype is identified. if only one of the subtypes have been tested then use the format h5nx or hxn1. example: h1n1</t>
@@ -1981,19 +1966,19 @@
     <t>wild:resident</t>
   </si>
   <si>
-    <t>host_habitat</t>
+    <t>host habitat</t>
   </si>
   <si>
     <t>(Recommended) Natural habitat of the avian or mammalian host.</t>
   </si>
   <si>
-    <t>isolation_source_hostassociated</t>
+    <t>isolation source host-associated</t>
   </si>
   <si>
     <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
   </si>
   <si>
-    <t>host_description</t>
+    <t>host description</t>
   </si>
   <si>
     <t>(Optional) Other descriptive information relating to the host.</t>
@@ -2014,13 +1999,13 @@
     <t>wild</t>
   </si>
   <si>
-    <t>host_behaviour</t>
+    <t>host behaviour</t>
   </si>
   <si>
     <t>(Recommended) Natural behaviour of the host.</t>
   </si>
   <si>
-    <t>isolation_source_nonhostassociated</t>
+    <t>isolation source non-host-associated</t>
   </si>
   <si>
     <t>(Recommended) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived. example: soil</t>
@@ -3619,73 +3604,73 @@
         <v>302</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>658</v>
-      </c>
       <c r="AN1" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="150" customHeight="1">
@@ -3741,73 +3726,73 @@
         <v>303</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>604</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="AL2" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>659</v>
-      </c>
       <c r="AN2" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -3843,7 +3828,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:AM294"/>
+  <dimension ref="I1:AM289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3860,19 +3845,19 @@
         <v>304</v>
       </c>
       <c r="S1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="W1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="X1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="AI1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AM1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2" spans="9:39">
@@ -3886,19 +3871,19 @@
         <v>305</v>
       </c>
       <c r="S2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="W2" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="X2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AI2" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AM2" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="9:39">
@@ -3909,16 +3894,16 @@
         <v>306</v>
       </c>
       <c r="S3" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="W3" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="X3" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AI3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AM3" t="s">
         <v>116</v>
@@ -3932,16 +3917,16 @@
         <v>307</v>
       </c>
       <c r="W4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="X4" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="AI4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AM4" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="9:39">
@@ -3952,10 +3937,10 @@
         <v>308</v>
       </c>
       <c r="W5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="X5" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AI5" t="s">
         <v>116</v>
@@ -3969,13 +3954,13 @@
         <v>309</v>
       </c>
       <c r="W6" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="X6" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="AI6" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="9:39">
@@ -3986,13 +3971,13 @@
         <v>310</v>
       </c>
       <c r="W7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="X7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="AI7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="9:39">
@@ -4000,10 +3985,10 @@
         <v>311</v>
       </c>
       <c r="W8" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="X8" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="9:39">
@@ -4011,10 +3996,10 @@
         <v>312</v>
       </c>
       <c r="W9" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="X9" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="9:39">
@@ -4022,10 +4007,10 @@
         <v>313</v>
       </c>
       <c r="W10" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="X10" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="9:39">
@@ -4033,10 +4018,10 @@
         <v>314</v>
       </c>
       <c r="W11" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="X11" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="9:39">
@@ -4044,10 +4029,10 @@
         <v>315</v>
       </c>
       <c r="W12" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="X12" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="9:39">
@@ -4055,10 +4040,10 @@
         <v>316</v>
       </c>
       <c r="W13" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="X13" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="9:39">
@@ -4066,10 +4051,10 @@
         <v>317</v>
       </c>
       <c r="W14" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="X14" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="9:39">
@@ -4077,7 +4062,7 @@
         <v>318</v>
       </c>
       <c r="X15" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="9:39">
@@ -4093,7 +4078,7 @@
         <v>320</v>
       </c>
       <c r="X17" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="18:24">
@@ -5454,31 +5439,6 @@
     <row r="289" spans="18:18">
       <c r="R289" t="s">
         <v>592</v>
-      </c>
-    </row>
-    <row r="290" spans="18:18">
-      <c r="R290" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="291" spans="18:18">
-      <c r="R291" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="292" spans="18:18">
-      <c r="R292" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="293" spans="18:18">
-      <c r="R293" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="294" spans="18:18">
-      <c r="R294" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -18,19 +18,19 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$R$1:$R$289</definedName>
-    <definedName name="hospitalisation">'cv_sample'!$I$1:$I$2</definedName>
-    <definedName name="hostbehaviour">'cv_sample'!$AM$1:$AM$4</definedName>
-    <definedName name="hostdiseaseoutcome">'cv_sample'!$S$1:$S$3</definedName>
-    <definedName name="hosthabitat">'cv_sample'!$AI$1:$AI$7</definedName>
-    <definedName name="hosthealthstate">'cv_sample'!$W$1:$W$14</definedName>
-    <definedName name="hostsex">'cv_sample'!$X$1:$X$17</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$T$1:$T$289</definedName>
+    <definedName name="hospitalisation">'cv_sample'!$K$1:$K$2</definedName>
+    <definedName name="hostbehaviour">'cv_sample'!$AO$1:$AO$4</definedName>
+    <definedName name="hostdiseaseoutcome">'cv_sample'!$U$1:$U$3</definedName>
+    <definedName name="hosthabitat">'cv_sample'!$AK$1:$AK$7</definedName>
+    <definedName name="hosthealthstate">'cv_sample'!$Y$1:$Y$14</definedName>
+    <definedName name="hostsex">'cv_sample'!$Z$1:$Z$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="samplecapturestatus">'cv_sample'!$Q$1:$Q$7</definedName>
+    <definedName name="samplecapturestatus">'cv_sample'!$S$1:$S$7</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="661">
   <si>
     <t>alias</t>
   </si>
@@ -842,6 +842,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3542,7 +3554,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3551,7 +3563,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:42">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3577,10 +3589,10 @@
         <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>284</v>
@@ -3601,16 +3613,16 @@
         <v>294</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>593</v>
+        <v>298</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>598</v>
+        <v>306</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>602</v>
@@ -3619,13 +3631,13 @@
         <v>604</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>614</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>618</v>
@@ -3655,10 +3667,10 @@
         <v>634</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>646</v>
@@ -3667,13 +3679,19 @@
         <v>648</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" ht="150" customHeight="1">
+        <v>652</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3699,10 +3717,10 @@
         <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>285</v>
@@ -3723,16 +3741,16 @@
         <v>295</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>594</v>
+        <v>299</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>599</v>
+        <v>307</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>603</v>
@@ -3741,13 +3759,13 @@
         <v>605</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>615</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>619</v>
@@ -3777,10 +3795,10 @@
         <v>635</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>647</v>
@@ -3789,36 +3807,42 @@
         <v>649</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
       <formula1>hospitalisation</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>samplecapturestatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
       <formula1>hostdiseaseoutcome</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
       <formula1>hosthealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z101">
       <formula1>hostsex</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI3:AI101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK101">
       <formula1>hosthabitat</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO3:AO101">
       <formula1>hostbehaviour</formula1>
     </dataValidation>
   </dataValidations>
@@ -3828,1617 +3852,1617 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:AM289"/>
+  <dimension ref="K1:AO289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="9:39">
-      <c r="I1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>296</v>
-      </c>
-      <c r="R1" t="s">
+    <row r="1" spans="11:41">
+      <c r="K1" t="s">
+        <v>282</v>
+      </c>
+      <c r="S1" t="s">
+        <v>300</v>
+      </c>
+      <c r="T1" t="s">
+        <v>308</v>
+      </c>
+      <c r="U1" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>610</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="2" spans="11:41">
+      <c r="K2" t="s">
+        <v>283</v>
+      </c>
+      <c r="S2" t="s">
+        <v>301</v>
+      </c>
+      <c r="T2" t="s">
+        <v>309</v>
+      </c>
+      <c r="U2" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>611</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>641</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="3" spans="11:41">
+      <c r="S3" t="s">
+        <v>302</v>
+      </c>
+      <c r="T3" t="s">
+        <v>310</v>
+      </c>
+      <c r="U3" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>585</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>616</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>642</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="11:41">
+      <c r="S4" t="s">
+        <v>303</v>
+      </c>
+      <c r="T4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>586</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>585</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>643</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="5" spans="11:41">
+      <c r="S5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>587</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="11:41">
+      <c r="S6" t="s">
         <v>304</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T6" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>588</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>587</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="7" spans="11:41">
+      <c r="S7" t="s">
+        <v>305</v>
+      </c>
+      <c r="T7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>588</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="11:41">
+      <c r="T8" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="11:41">
+      <c r="T9" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="10" spans="11:41">
+      <c r="T10" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="11:41">
+      <c r="T11" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="11:41">
+      <c r="T12" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="13" spans="11:41">
+      <c r="T13" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y13" t="s">
         <v>595</v>
       </c>
-      <c r="W1" t="s">
-        <v>606</v>
-      </c>
-      <c r="X1" t="s">
-        <v>610</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>636</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="2" spans="9:39">
-      <c r="I2" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>297</v>
-      </c>
-      <c r="R2" t="s">
-        <v>305</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="Z13" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="11:41">
+      <c r="T14" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y14" t="s">
         <v>596</v>
       </c>
-      <c r="W2" t="s">
-        <v>607</v>
-      </c>
-      <c r="X2" t="s">
-        <v>611</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>637</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="3" spans="9:39">
-      <c r="Q3" t="s">
-        <v>298</v>
-      </c>
-      <c r="R3" t="s">
-        <v>306</v>
-      </c>
-      <c r="S3" t="s">
-        <v>597</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="Z14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="11:41">
+      <c r="T15" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="16" spans="11:41">
+      <c r="T16" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="20:26">
+      <c r="T17" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="20:26">
+      <c r="T18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="20:26">
+      <c r="T19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="20:26">
+      <c r="T20" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="20:26">
+      <c r="T21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="20:26">
+      <c r="T22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="20:26">
+      <c r="T23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="20:26">
+      <c r="T24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="20:26">
+      <c r="T25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="20:26">
+      <c r="T26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="20:26">
+      <c r="T27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="20:26">
+      <c r="T28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="20:26">
+      <c r="T29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="20:26">
+      <c r="T30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="20:26">
+      <c r="T31" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="20:26">
+      <c r="T32" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="20:20">
+      <c r="T33" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="20:20">
+      <c r="T34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="20:20">
+      <c r="T35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="20:20">
+      <c r="T36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="20:20">
+      <c r="T37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="20:20">
+      <c r="T38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="20:20">
+      <c r="T39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="20:20">
+      <c r="T40" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="20:20">
+      <c r="T41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="20:20">
+      <c r="T42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="20:20">
+      <c r="T43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="20:20">
+      <c r="T44" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="20:20">
+      <c r="T45" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="46" spans="20:20">
+      <c r="T46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="20:20">
+      <c r="T47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="20:20">
+      <c r="T48" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="49" spans="20:20">
+      <c r="T49" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="50" spans="20:20">
+      <c r="T50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="20:20">
+      <c r="T51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="20:20">
+      <c r="T52" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="20:20">
+      <c r="T53" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="20:20">
+      <c r="T54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55" spans="20:20">
+      <c r="T55" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="20:20">
+      <c r="T56" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="57" spans="20:20">
+      <c r="T57" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="58" spans="20:20">
+      <c r="T58" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="59" spans="20:20">
+      <c r="T59" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="20:20">
+      <c r="T60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="20:20">
+      <c r="T61" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="62" spans="20:20">
+      <c r="T62" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="63" spans="20:20">
+      <c r="T63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="20:20">
+      <c r="T64" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65" spans="20:20">
+      <c r="T65" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="66" spans="20:20">
+      <c r="T66" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="67" spans="20:20">
+      <c r="T67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="20:20">
+      <c r="T68" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="20:20">
+      <c r="T69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="20:20">
+      <c r="T70" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="71" spans="20:20">
+      <c r="T71" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="20:20">
+      <c r="T72" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73" spans="20:20">
+      <c r="T73" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="20:20">
+      <c r="T74" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="20:20">
+      <c r="T75" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="20:20">
+      <c r="T76" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="77" spans="20:20">
+      <c r="T77" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="20:20">
+      <c r="T78" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="20:20">
+      <c r="T79" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="20:20">
+      <c r="T80" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="20:20">
+      <c r="T81" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="82" spans="20:20">
+      <c r="T82" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="20:20">
+      <c r="T83" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="20:20">
+      <c r="T84" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="85" spans="20:20">
+      <c r="T85" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="86" spans="20:20">
+      <c r="T86" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="87" spans="20:20">
+      <c r="T87" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="20:20">
+      <c r="T88" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="89" spans="20:20">
+      <c r="T89" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="90" spans="20:20">
+      <c r="T90" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="91" spans="20:20">
+      <c r="T91" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="20:20">
+      <c r="T92" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="93" spans="20:20">
+      <c r="T93" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="94" spans="20:20">
+      <c r="T94" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="95" spans="20:20">
+      <c r="T95" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="96" spans="20:20">
+      <c r="T96" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="97" spans="20:20">
+      <c r="T97" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="20:20">
+      <c r="T98" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="99" spans="20:20">
+      <c r="T99" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="100" spans="20:20">
+      <c r="T100" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="101" spans="20:20">
+      <c r="T101" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="102" spans="20:20">
+      <c r="T102" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="103" spans="20:20">
+      <c r="T103" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" spans="20:20">
+      <c r="T104" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="105" spans="20:20">
+      <c r="T105" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="20:20">
+      <c r="T106" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="107" spans="20:20">
+      <c r="T107" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="108" spans="20:20">
+      <c r="T108" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="109" spans="20:20">
+      <c r="T109" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="110" spans="20:20">
+      <c r="T110" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="111" spans="20:20">
+      <c r="T111" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="112" spans="20:20">
+      <c r="T112" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="113" spans="20:20">
+      <c r="T113" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="114" spans="20:20">
+      <c r="T114" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="115" spans="20:20">
+      <c r="T115" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="116" spans="20:20">
+      <c r="T116" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="117" spans="20:20">
+      <c r="T117" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="118" spans="20:20">
+      <c r="T118" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="119" spans="20:20">
+      <c r="T119" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="20:20">
+      <c r="T120" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="121" spans="20:20">
+      <c r="T121" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="122" spans="20:20">
+      <c r="T122" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="123" spans="20:20">
+      <c r="T123" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="124" spans="20:20">
+      <c r="T124" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="20:20">
+      <c r="T125" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="126" spans="20:20">
+      <c r="T126" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="127" spans="20:20">
+      <c r="T127" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="128" spans="20:20">
+      <c r="T128" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="129" spans="20:20">
+      <c r="T129" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="130" spans="20:20">
+      <c r="T130" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="131" spans="20:20">
+      <c r="T131" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="132" spans="20:20">
+      <c r="T132" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="133" spans="20:20">
+      <c r="T133" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="20:20">
+      <c r="T134" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="135" spans="20:20">
+      <c r="T135" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="136" spans="20:20">
+      <c r="T136" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="20:20">
+      <c r="T137" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="138" spans="20:20">
+      <c r="T138" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" spans="20:20">
+      <c r="T139" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="140" spans="20:20">
+      <c r="T140" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="20:20">
+      <c r="T141" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="142" spans="20:20">
+      <c r="T142" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="143" spans="20:20">
+      <c r="T143" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="144" spans="20:20">
+      <c r="T144" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" spans="20:20">
+      <c r="T145" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146" spans="20:20">
+      <c r="T146" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="147" spans="20:20">
+      <c r="T147" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="20:20">
+      <c r="T148" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="149" spans="20:20">
+      <c r="T149" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="150" spans="20:20">
+      <c r="T150" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="151" spans="20:20">
+      <c r="T151" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="152" spans="20:20">
+      <c r="T152" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="153" spans="20:20">
+      <c r="T153" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="154" spans="20:20">
+      <c r="T154" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="155" spans="20:20">
+      <c r="T155" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="156" spans="20:20">
+      <c r="T156" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="20:20">
+      <c r="T157" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="158" spans="20:20">
+      <c r="T158" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="159" spans="20:20">
+      <c r="T159" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="160" spans="20:20">
+      <c r="T160" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="161" spans="20:20">
+      <c r="T161" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="162" spans="20:20">
+      <c r="T162" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="163" spans="20:20">
+      <c r="T163" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="164" spans="20:20">
+      <c r="T164" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="165" spans="20:20">
+      <c r="T165" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="166" spans="20:20">
+      <c r="T166" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="167" spans="20:20">
+      <c r="T167" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="168" spans="20:20">
+      <c r="T168" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="169" spans="20:20">
+      <c r="T169" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="170" spans="20:20">
+      <c r="T170" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="171" spans="20:20">
+      <c r="T171" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="172" spans="20:20">
+      <c r="T172" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="173" spans="20:20">
+      <c r="T173" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" spans="20:20">
+      <c r="T174" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="175" spans="20:20">
+      <c r="T175" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="176" spans="20:20">
+      <c r="T176" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="20:20">
+      <c r="T177" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="178" spans="20:20">
+      <c r="T178" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="179" spans="20:20">
+      <c r="T179" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="180" spans="20:20">
+      <c r="T180" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="181" spans="20:20">
+      <c r="T181" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="182" spans="20:20">
+      <c r="T182" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="183" spans="20:20">
+      <c r="T183" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="184" spans="20:20">
+      <c r="T184" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="185" spans="20:20">
+      <c r="T185" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="186" spans="20:20">
+      <c r="T186" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="187" spans="20:20">
+      <c r="T187" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="188" spans="20:20">
+      <c r="T188" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="189" spans="20:20">
+      <c r="T189" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="190" spans="20:20">
+      <c r="T190" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="191" spans="20:20">
+      <c r="T191" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="192" spans="20:20">
+      <c r="T192" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="193" spans="20:20">
+      <c r="T193" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="20:20">
+      <c r="T194" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="195" spans="20:20">
+      <c r="T195" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="196" spans="20:20">
+      <c r="T196" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="197" spans="20:20">
+      <c r="T197" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="198" spans="20:20">
+      <c r="T198" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="199" spans="20:20">
+      <c r="T199" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="200" spans="20:20">
+      <c r="T200" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="201" spans="20:20">
+      <c r="T201" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="202" spans="20:20">
+      <c r="T202" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="203" spans="20:20">
+      <c r="T203" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="204" spans="20:20">
+      <c r="T204" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="205" spans="20:20">
+      <c r="T205" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="206" spans="20:20">
+      <c r="T206" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="207" spans="20:20">
+      <c r="T207" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="208" spans="20:20">
+      <c r="T208" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="209" spans="20:20">
+      <c r="T209" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="210" spans="20:20">
+      <c r="T210" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="211" spans="20:20">
+      <c r="T211" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="212" spans="20:20">
+      <c r="T212" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="213" spans="20:20">
+      <c r="T213" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="214" spans="20:20">
+      <c r="T214" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="215" spans="20:20">
+      <c r="T215" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="216" spans="20:20">
+      <c r="T216" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="217" spans="20:20">
+      <c r="T217" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="218" spans="20:20">
+      <c r="T218" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="219" spans="20:20">
+      <c r="T219" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="220" spans="20:20">
+      <c r="T220" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="221" spans="20:20">
+      <c r="T221" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="222" spans="20:20">
+      <c r="T222" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="223" spans="20:20">
+      <c r="T223" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="224" spans="20:20">
+      <c r="T224" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="225" spans="20:20">
+      <c r="T225" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="226" spans="20:20">
+      <c r="T226" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="227" spans="20:20">
+      <c r="T227" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="228" spans="20:20">
+      <c r="T228" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="229" spans="20:20">
+      <c r="T229" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="230" spans="20:20">
+      <c r="T230" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="231" spans="20:20">
+      <c r="T231" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="232" spans="20:20">
+      <c r="T232" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="233" spans="20:20">
+      <c r="T233" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="234" spans="20:20">
+      <c r="T234" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="235" spans="20:20">
+      <c r="T235" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="236" spans="20:20">
+      <c r="T236" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="237" spans="20:20">
+      <c r="T237" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="238" spans="20:20">
+      <c r="T238" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="239" spans="20:20">
+      <c r="T239" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="240" spans="20:20">
+      <c r="T240" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="241" spans="20:20">
+      <c r="T241" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="242" spans="20:20">
+      <c r="T242" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="243" spans="20:20">
+      <c r="T243" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="244" spans="20:20">
+      <c r="T244" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="245" spans="20:20">
+      <c r="T245" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="246" spans="20:20">
+      <c r="T246" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="247" spans="20:20">
+      <c r="T247" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="248" spans="20:20">
+      <c r="T248" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="249" spans="20:20">
+      <c r="T249" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="250" spans="20:20">
+      <c r="T250" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="251" spans="20:20">
+      <c r="T251" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="252" spans="20:20">
+      <c r="T252" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="253" spans="20:20">
+      <c r="T253" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="254" spans="20:20">
+      <c r="T254" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="255" spans="20:20">
+      <c r="T255" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="256" spans="20:20">
+      <c r="T256" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="257" spans="20:20">
+      <c r="T257" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="258" spans="20:20">
+      <c r="T258" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="259" spans="20:20">
+      <c r="T259" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="260" spans="20:20">
+      <c r="T260" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="261" spans="20:20">
+      <c r="T261" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="262" spans="20:20">
+      <c r="T262" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="263" spans="20:20">
+      <c r="T263" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="264" spans="20:20">
+      <c r="T264" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="265" spans="20:20">
+      <c r="T265" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="266" spans="20:20">
+      <c r="T266" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="267" spans="20:20">
+      <c r="T267" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="268" spans="20:20">
+      <c r="T268" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="269" spans="20:20">
+      <c r="T269" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="270" spans="20:20">
+      <c r="T270" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="271" spans="20:20">
+      <c r="T271" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="272" spans="20:20">
+      <c r="T272" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="273" spans="20:20">
+      <c r="T273" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="274" spans="20:20">
+      <c r="T274" t="s">
         <v>581</v>
       </c>
-      <c r="X3" t="s">
-        <v>612</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>638</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="9:39">
-      <c r="Q4" t="s">
-        <v>299</v>
-      </c>
-      <c r="R4" t="s">
-        <v>307</v>
-      </c>
-      <c r="W4" t="s">
+    </row>
+    <row r="275" spans="20:20">
+      <c r="T275" t="s">
         <v>582</v>
       </c>
-      <c r="X4" t="s">
-        <v>581</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>639</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="5" spans="9:39">
-      <c r="Q5" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" t="s">
-        <v>308</v>
-      </c>
-      <c r="W5" t="s">
+    </row>
+    <row r="276" spans="20:20">
+      <c r="T276" t="s">
         <v>583</v>
       </c>
-      <c r="X5" t="s">
-        <v>582</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="9:39">
-      <c r="Q6" t="s">
-        <v>300</v>
-      </c>
-      <c r="R6" t="s">
-        <v>309</v>
-      </c>
-      <c r="W6" t="s">
+    </row>
+    <row r="277" spans="20:20">
+      <c r="T277" t="s">
         <v>584</v>
       </c>
-      <c r="X6" t="s">
-        <v>583</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="7" spans="9:39">
-      <c r="Q7" t="s">
-        <v>301</v>
-      </c>
-      <c r="R7" t="s">
-        <v>310</v>
-      </c>
-      <c r="W7" t="s">
+    </row>
+    <row r="278" spans="20:20">
+      <c r="T278" t="s">
         <v>585</v>
       </c>
-      <c r="X7" t="s">
-        <v>584</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="8" spans="9:39">
-      <c r="R8" t="s">
-        <v>311</v>
-      </c>
-      <c r="W8" t="s">
+    </row>
+    <row r="279" spans="20:20">
+      <c r="T279" t="s">
         <v>586</v>
       </c>
-      <c r="X8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="9" spans="9:39">
-      <c r="R9" t="s">
-        <v>312</v>
-      </c>
-      <c r="W9" t="s">
+    </row>
+    <row r="280" spans="20:20">
+      <c r="T280" t="s">
         <v>587</v>
       </c>
-      <c r="X9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="10" spans="9:39">
-      <c r="R10" t="s">
-        <v>313</v>
-      </c>
-      <c r="W10" t="s">
+    </row>
+    <row r="281" spans="20:20">
+      <c r="T281" t="s">
         <v>588</v>
       </c>
-      <c r="X10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="11" spans="9:39">
-      <c r="R11" t="s">
-        <v>314</v>
-      </c>
-      <c r="W11" t="s">
+    </row>
+    <row r="282" spans="20:20">
+      <c r="T282" t="s">
         <v>589</v>
       </c>
-      <c r="X11" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="12" spans="9:39">
-      <c r="R12" t="s">
-        <v>315</v>
-      </c>
-      <c r="W12" t="s">
+    </row>
+    <row r="283" spans="20:20">
+      <c r="T283" t="s">
         <v>590</v>
       </c>
-      <c r="X12" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="13" spans="9:39">
-      <c r="R13" t="s">
-        <v>316</v>
-      </c>
-      <c r="W13" t="s">
+    </row>
+    <row r="284" spans="20:20">
+      <c r="T284" t="s">
         <v>591</v>
       </c>
-      <c r="X13" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="14" spans="9:39">
-      <c r="R14" t="s">
-        <v>317</v>
-      </c>
-      <c r="W14" t="s">
+    </row>
+    <row r="285" spans="20:20">
+      <c r="T285" t="s">
         <v>592</v>
       </c>
-      <c r="X14" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="15" spans="9:39">
-      <c r="R15" t="s">
-        <v>318</v>
-      </c>
-      <c r="X15" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="16" spans="9:39">
-      <c r="R16" t="s">
-        <v>319</v>
-      </c>
-      <c r="X16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="18:24">
-      <c r="R17" t="s">
-        <v>320</v>
-      </c>
-      <c r="X17" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="18" spans="18:24">
-      <c r="R18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="19" spans="18:24">
-      <c r="R19" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="18:24">
-      <c r="R20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="18:24">
-      <c r="R21" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="18:24">
-      <c r="R22" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="18:24">
-      <c r="R23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="18:24">
-      <c r="R24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="25" spans="18:24">
-      <c r="R25" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="18:24">
-      <c r="R26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="18:24">
-      <c r="R27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="28" spans="18:24">
-      <c r="R28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="29" spans="18:24">
-      <c r="R29" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="18:24">
-      <c r="R30" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="31" spans="18:24">
-      <c r="R31" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="32" spans="18:24">
-      <c r="R32" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="33" spans="18:18">
-      <c r="R33" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="34" spans="18:18">
-      <c r="R34" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="18:18">
-      <c r="R35" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="18:18">
-      <c r="R36" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="18:18">
-      <c r="R37" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="18:18">
-      <c r="R38" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="18:18">
-      <c r="R39" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="18:18">
-      <c r="R40" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="41" spans="18:18">
-      <c r="R41" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="18:18">
-      <c r="R42" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="18:18">
-      <c r="R43" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="44" spans="18:18">
-      <c r="R44" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="45" spans="18:18">
-      <c r="R45" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="46" spans="18:18">
-      <c r="R46" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="47" spans="18:18">
-      <c r="R47" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="18:18">
-      <c r="R48" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="49" spans="18:18">
-      <c r="R49" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50" spans="18:18">
-      <c r="R50" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="51" spans="18:18">
-      <c r="R51" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="52" spans="18:18">
-      <c r="R52" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="53" spans="18:18">
-      <c r="R53" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="54" spans="18:18">
-      <c r="R54" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="55" spans="18:18">
-      <c r="R55" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="56" spans="18:18">
-      <c r="R56" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="57" spans="18:18">
-      <c r="R57" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="58" spans="18:18">
-      <c r="R58" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="59" spans="18:18">
-      <c r="R59" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="60" spans="18:18">
-      <c r="R60" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="61" spans="18:18">
-      <c r="R61" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="62" spans="18:18">
-      <c r="R62" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="63" spans="18:18">
-      <c r="R63" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="64" spans="18:18">
-      <c r="R64" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="65" spans="18:18">
-      <c r="R65" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="66" spans="18:18">
-      <c r="R66" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="67" spans="18:18">
-      <c r="R67" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="18:18">
-      <c r="R68" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="69" spans="18:18">
-      <c r="R69" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="18:18">
-      <c r="R70" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="71" spans="18:18">
-      <c r="R71" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="72" spans="18:18">
-      <c r="R72" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="73" spans="18:18">
-      <c r="R73" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="74" spans="18:18">
-      <c r="R74" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="18:18">
-      <c r="R75" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="76" spans="18:18">
-      <c r="R76" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="77" spans="18:18">
-      <c r="R77" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="78" spans="18:18">
-      <c r="R78" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="79" spans="18:18">
-      <c r="R79" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="80" spans="18:18">
-      <c r="R80" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="81" spans="18:18">
-      <c r="R81" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="82" spans="18:18">
-      <c r="R82" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="83" spans="18:18">
-      <c r="R83" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="84" spans="18:18">
-      <c r="R84" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="85" spans="18:18">
-      <c r="R85" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="86" spans="18:18">
-      <c r="R86" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="87" spans="18:18">
-      <c r="R87" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="88" spans="18:18">
-      <c r="R88" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="89" spans="18:18">
-      <c r="R89" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="90" spans="18:18">
-      <c r="R90" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="91" spans="18:18">
-      <c r="R91" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="92" spans="18:18">
-      <c r="R92" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="93" spans="18:18">
-      <c r="R93" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="94" spans="18:18">
-      <c r="R94" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="95" spans="18:18">
-      <c r="R95" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="96" spans="18:18">
-      <c r="R96" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="97" spans="18:18">
-      <c r="R97" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="98" spans="18:18">
-      <c r="R98" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="99" spans="18:18">
-      <c r="R99" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="100" spans="18:18">
-      <c r="R100" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="101" spans="18:18">
-      <c r="R101" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="102" spans="18:18">
-      <c r="R102" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="103" spans="18:18">
-      <c r="R103" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="104" spans="18:18">
-      <c r="R104" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="105" spans="18:18">
-      <c r="R105" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="106" spans="18:18">
-      <c r="R106" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="107" spans="18:18">
-      <c r="R107" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="108" spans="18:18">
-      <c r="R108" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="109" spans="18:18">
-      <c r="R109" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="110" spans="18:18">
-      <c r="R110" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="111" spans="18:18">
-      <c r="R111" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="112" spans="18:18">
-      <c r="R112" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="113" spans="18:18">
-      <c r="R113" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="114" spans="18:18">
-      <c r="R114" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="115" spans="18:18">
-      <c r="R115" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="116" spans="18:18">
-      <c r="R116" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="117" spans="18:18">
-      <c r="R117" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="118" spans="18:18">
-      <c r="R118" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="119" spans="18:18">
-      <c r="R119" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="120" spans="18:18">
-      <c r="R120" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="121" spans="18:18">
-      <c r="R121" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="122" spans="18:18">
-      <c r="R122" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="123" spans="18:18">
-      <c r="R123" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="124" spans="18:18">
-      <c r="R124" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="125" spans="18:18">
-      <c r="R125" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="126" spans="18:18">
-      <c r="R126" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="127" spans="18:18">
-      <c r="R127" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="128" spans="18:18">
-      <c r="R128" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="129" spans="18:18">
-      <c r="R129" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="130" spans="18:18">
-      <c r="R130" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="131" spans="18:18">
-      <c r="R131" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="132" spans="18:18">
-      <c r="R132" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="133" spans="18:18">
-      <c r="R133" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="134" spans="18:18">
-      <c r="R134" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="135" spans="18:18">
-      <c r="R135" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="136" spans="18:18">
-      <c r="R136" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="137" spans="18:18">
-      <c r="R137" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="138" spans="18:18">
-      <c r="R138" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="139" spans="18:18">
-      <c r="R139" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="140" spans="18:18">
-      <c r="R140" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="141" spans="18:18">
-      <c r="R141" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="142" spans="18:18">
-      <c r="R142" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="143" spans="18:18">
-      <c r="R143" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="144" spans="18:18">
-      <c r="R144" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="145" spans="18:18">
-      <c r="R145" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="146" spans="18:18">
-      <c r="R146" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="147" spans="18:18">
-      <c r="R147" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="148" spans="18:18">
-      <c r="R148" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="149" spans="18:18">
-      <c r="R149" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="150" spans="18:18">
-      <c r="R150" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="151" spans="18:18">
-      <c r="R151" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="152" spans="18:18">
-      <c r="R152" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="153" spans="18:18">
-      <c r="R153" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="154" spans="18:18">
-      <c r="R154" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="155" spans="18:18">
-      <c r="R155" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="156" spans="18:18">
-      <c r="R156" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="157" spans="18:18">
-      <c r="R157" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="158" spans="18:18">
-      <c r="R158" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="159" spans="18:18">
-      <c r="R159" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="160" spans="18:18">
-      <c r="R160" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="161" spans="18:18">
-      <c r="R161" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="162" spans="18:18">
-      <c r="R162" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="163" spans="18:18">
-      <c r="R163" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="164" spans="18:18">
-      <c r="R164" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="165" spans="18:18">
-      <c r="R165" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="166" spans="18:18">
-      <c r="R166" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="167" spans="18:18">
-      <c r="R167" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="168" spans="18:18">
-      <c r="R168" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="169" spans="18:18">
-      <c r="R169" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="170" spans="18:18">
-      <c r="R170" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="171" spans="18:18">
-      <c r="R171" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="172" spans="18:18">
-      <c r="R172" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="173" spans="18:18">
-      <c r="R173" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="174" spans="18:18">
-      <c r="R174" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="175" spans="18:18">
-      <c r="R175" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="176" spans="18:18">
-      <c r="R176" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="177" spans="18:18">
-      <c r="R177" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="178" spans="18:18">
-      <c r="R178" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="179" spans="18:18">
-      <c r="R179" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="180" spans="18:18">
-      <c r="R180" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="181" spans="18:18">
-      <c r="R181" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="182" spans="18:18">
-      <c r="R182" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="183" spans="18:18">
-      <c r="R183" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="184" spans="18:18">
-      <c r="R184" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="185" spans="18:18">
-      <c r="R185" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="186" spans="18:18">
-      <c r="R186" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="187" spans="18:18">
-      <c r="R187" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="188" spans="18:18">
-      <c r="R188" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="189" spans="18:18">
-      <c r="R189" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="190" spans="18:18">
-      <c r="R190" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="191" spans="18:18">
-      <c r="R191" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="192" spans="18:18">
-      <c r="R192" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="193" spans="18:18">
-      <c r="R193" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="194" spans="18:18">
-      <c r="R194" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="195" spans="18:18">
-      <c r="R195" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="196" spans="18:18">
-      <c r="R196" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="197" spans="18:18">
-      <c r="R197" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="198" spans="18:18">
-      <c r="R198" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="199" spans="18:18">
-      <c r="R199" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="200" spans="18:18">
-      <c r="R200" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="201" spans="18:18">
-      <c r="R201" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="202" spans="18:18">
-      <c r="R202" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="203" spans="18:18">
-      <c r="R203" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="204" spans="18:18">
-      <c r="R204" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="205" spans="18:18">
-      <c r="R205" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="206" spans="18:18">
-      <c r="R206" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="207" spans="18:18">
-      <c r="R207" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="208" spans="18:18">
-      <c r="R208" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="209" spans="18:18">
-      <c r="R209" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="210" spans="18:18">
-      <c r="R210" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="211" spans="18:18">
-      <c r="R211" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="212" spans="18:18">
-      <c r="R212" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="213" spans="18:18">
-      <c r="R213" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="214" spans="18:18">
-      <c r="R214" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="215" spans="18:18">
-      <c r="R215" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="216" spans="18:18">
-      <c r="R216" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="217" spans="18:18">
-      <c r="R217" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="218" spans="18:18">
-      <c r="R218" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="219" spans="18:18">
-      <c r="R219" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="220" spans="18:18">
-      <c r="R220" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="221" spans="18:18">
-      <c r="R221" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="222" spans="18:18">
-      <c r="R222" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="223" spans="18:18">
-      <c r="R223" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="224" spans="18:18">
-      <c r="R224" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="225" spans="18:18">
-      <c r="R225" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="226" spans="18:18">
-      <c r="R226" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="227" spans="18:18">
-      <c r="R227" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="228" spans="18:18">
-      <c r="R228" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="229" spans="18:18">
-      <c r="R229" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="230" spans="18:18">
-      <c r="R230" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="231" spans="18:18">
-      <c r="R231" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="232" spans="18:18">
-      <c r="R232" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="233" spans="18:18">
-      <c r="R233" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="234" spans="18:18">
-      <c r="R234" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="235" spans="18:18">
-      <c r="R235" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="236" spans="18:18">
-      <c r="R236" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="237" spans="18:18">
-      <c r="R237" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="238" spans="18:18">
-      <c r="R238" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="239" spans="18:18">
-      <c r="R239" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="240" spans="18:18">
-      <c r="R240" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="241" spans="18:18">
-      <c r="R241" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="242" spans="18:18">
-      <c r="R242" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="243" spans="18:18">
-      <c r="R243" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="244" spans="18:18">
-      <c r="R244" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="245" spans="18:18">
-      <c r="R245" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="246" spans="18:18">
-      <c r="R246" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="247" spans="18:18">
-      <c r="R247" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="248" spans="18:18">
-      <c r="R248" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="249" spans="18:18">
-      <c r="R249" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="250" spans="18:18">
-      <c r="R250" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="251" spans="18:18">
-      <c r="R251" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="252" spans="18:18">
-      <c r="R252" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="253" spans="18:18">
-      <c r="R253" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="254" spans="18:18">
-      <c r="R254" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="255" spans="18:18">
-      <c r="R255" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="256" spans="18:18">
-      <c r="R256" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="257" spans="18:18">
-      <c r="R257" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="258" spans="18:18">
-      <c r="R258" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="259" spans="18:18">
-      <c r="R259" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="260" spans="18:18">
-      <c r="R260" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="261" spans="18:18">
-      <c r="R261" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="262" spans="18:18">
-      <c r="R262" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="263" spans="18:18">
-      <c r="R263" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="264" spans="18:18">
-      <c r="R264" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="265" spans="18:18">
-      <c r="R265" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="266" spans="18:18">
-      <c r="R266" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="267" spans="18:18">
-      <c r="R267" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="268" spans="18:18">
-      <c r="R268" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="269" spans="18:18">
-      <c r="R269" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="270" spans="18:18">
-      <c r="R270" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="271" spans="18:18">
-      <c r="R271" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="272" spans="18:18">
-      <c r="R272" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="273" spans="18:18">
-      <c r="R273" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="274" spans="18:18">
-      <c r="R274" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="275" spans="18:18">
-      <c r="R275" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="276" spans="18:18">
-      <c r="R276" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="277" spans="18:18">
-      <c r="R277" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="278" spans="18:18">
-      <c r="R278" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="279" spans="18:18">
-      <c r="R279" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="280" spans="18:18">
-      <c r="R280" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="281" spans="18:18">
-      <c r="R281" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="282" spans="18:18">
-      <c r="R282" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="283" spans="18:18">
-      <c r="R283" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="284" spans="18:18">
-      <c r="R284" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="285" spans="18:18">
-      <c r="R285" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="286" spans="18:18">
-      <c r="R286" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="287" spans="18:18">
-      <c r="R287" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="288" spans="18:18">
-      <c r="R288" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="289" spans="18:18">
-      <c r="R289" t="s">
-        <v>592</v>
+    </row>
+    <row r="286" spans="20:20">
+      <c r="T286" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="287" spans="20:20">
+      <c r="T287" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="288" spans="20:20">
+      <c r="T288" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="289" spans="20:20">
+      <c r="T289" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$T$1:$T$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$T$1:$T$294</definedName>
     <definedName name="hospitalisation">'cv_sample'!$K$1:$K$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$AO$1:$AO$4</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$U$1:$U$3</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="666">
   <si>
     <t>alias</t>
   </si>
@@ -937,7 +937,7 @@
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: week, month, year, day)</t>
   </si>
   <si>
     <t>active surveillance in response to outbreak</t>
@@ -1177,9 +1177,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1198,6 +1195,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1399,6 +1399,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1408,9 +1411,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1450,7 +1450,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1519,6 +1519,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1594,6 +1597,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1615,6 +1621,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1660,6 +1669,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1672,6 +1684,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1681,9 +1696,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1708,6 +1720,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1768,12 +1783,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1867,7 +1882,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
+    <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: centuries, hours, seconds, months, weeks, minutes, days, decades, years)</t>
   </si>
   <si>
     <t>diseased</t>
@@ -3622,73 +3637,73 @@
         <v>306</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="150" customHeight="1">
@@ -3750,73 +3765,73 @@
         <v>307</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -3852,7 +3867,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:AO289"/>
+  <dimension ref="K1:AO294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3869,19 +3884,19 @@
         <v>308</v>
       </c>
       <c r="U1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Y1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="Z1" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AK1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AO1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="11:41">
@@ -3895,19 +3910,19 @@
         <v>309</v>
       </c>
       <c r="U2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Y2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="Z2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AK2" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="AO2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="11:41">
@@ -3918,16 +3933,16 @@
         <v>310</v>
       </c>
       <c r="U3" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Y3" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Z3" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AK3" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="AO3" t="s">
         <v>116</v>
@@ -3941,16 +3956,16 @@
         <v>311</v>
       </c>
       <c r="Y4" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="Z4" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AK4" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="AO4" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="11:41">
@@ -3961,10 +3976,10 @@
         <v>312</v>
       </c>
       <c r="Y5" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="Z5" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AK5" t="s">
         <v>116</v>
@@ -3978,13 +3993,13 @@
         <v>313</v>
       </c>
       <c r="Y6" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="Z6" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="AK6" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="11:41">
@@ -3995,13 +4010,13 @@
         <v>314</v>
       </c>
       <c r="Y7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="Z7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="AK7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="11:41">
@@ -4009,10 +4024,10 @@
         <v>315</v>
       </c>
       <c r="Y8" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="Z8" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="11:41">
@@ -4020,10 +4035,10 @@
         <v>316</v>
       </c>
       <c r="Y9" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="Z9" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="11:41">
@@ -4031,10 +4046,10 @@
         <v>317</v>
       </c>
       <c r="Y10" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="Z10" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="11:41">
@@ -4042,10 +4057,10 @@
         <v>318</v>
       </c>
       <c r="Y11" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="Z11" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="11:41">
@@ -4053,10 +4068,10 @@
         <v>319</v>
       </c>
       <c r="Y12" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="Z12" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="11:41">
@@ -4064,10 +4079,10 @@
         <v>320</v>
       </c>
       <c r="Y13" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="Z13" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="11:41">
@@ -4075,10 +4090,10 @@
         <v>321</v>
       </c>
       <c r="Y14" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Z14" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="11:41">
@@ -4086,7 +4101,7 @@
         <v>322</v>
       </c>
       <c r="Z15" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="11:41">
@@ -4102,7 +4117,7 @@
         <v>324</v>
       </c>
       <c r="Z17" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="20:26">
@@ -5463,6 +5478,31 @@
     <row r="289" spans="20:20">
       <c r="T289" t="s">
         <v>596</v>
+      </c>
+    </row>
+    <row r="290" spans="20:20">
+      <c r="T290" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="291" spans="20:20">
+      <c r="T291" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="292" spans="20:20">
+      <c r="T292" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="293" spans="20:20">
+      <c r="T293" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="294" spans="20:20">
+      <c r="T294" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000033/metadata_template_ERC000033.xlsx
+++ b/templates/ERC000033/metadata_template_ERC000033.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$T$1:$T$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$T$1:$T$294</definedName>
     <definedName name="hospitalisation">'cv_sample'!$K$1:$K$2</definedName>
     <definedName name="hostbehaviour">'cv_sample'!$AO$1:$AO$4</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$U$1:$U$3</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="666">
   <si>
     <t>alias</t>
   </si>
@@ -937,7 +937,7 @@
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
   </si>
   <si>
     <t>active surveillance in response to outbreak</t>
@@ -1177,9 +1177,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1198,6 +1195,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1399,6 +1399,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1408,9 +1411,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1450,7 +1450,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1519,6 +1519,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1594,6 +1597,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1615,6 +1621,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1660,6 +1669,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1672,6 +1684,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1681,9 +1696,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1708,6 +1720,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1768,10 +1783,10 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
   </si>
   <si>
     <t>Wallis and Futuna</t>
@@ -3622,73 +3637,73 @@
         <v>306</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="150" customHeight="1">
@@ -3750,73 +3765,73 @@
         <v>307</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -3852,7 +3867,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:AO289"/>
+  <dimension ref="K1:AO294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3869,19 +3884,19 @@
         <v>308</v>
       </c>
       <c r="U1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Y1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="Z1" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AK1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AO1" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="11:41">
@@ -3895,19 +3910,19 @@
         <v>309</v>
       </c>
       <c r="U2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Y2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="Z2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AK2" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="AO2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="11:41">
@@ -3918,16 +3933,16 @@
         <v>310</v>
       </c>
       <c r="U3" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Y3" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Z3" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="AK3" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="AO3" t="s">
         <v>116</v>
@@ -3941,16 +3956,16 @@
         <v>311</v>
       </c>
       <c r="Y4" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="Z4" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="AK4" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="AO4" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="11:41">
@@ -3961,10 +3976,10 @@
         <v>312</v>
       </c>
       <c r="Y5" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="Z5" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="AK5" t="s">
         <v>116</v>
@@ -3978,13 +3993,13 @@
         <v>313</v>
       </c>
       <c r="Y6" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="Z6" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="AK6" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="11:41">
@@ -3995,13 +4010,13 @@
         <v>314</v>
       </c>
       <c r="Y7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="Z7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="AK7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="11:41">
@@ -4009,10 +4024,10 @@
         <v>315</v>
       </c>
       <c r="Y8" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="Z8" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="11:41">
@@ -4020,10 +4035,10 @@
         <v>316</v>
       </c>
       <c r="Y9" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="Z9" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="11:41">
@@ -4031,10 +4046,10 @@
         <v>317</v>
       </c>
       <c r="Y10" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="Z10" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="11:41">
@@ -4042,10 +4057,10 @@
         <v>318</v>
       </c>
       <c r="Y11" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="Z11" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="11:41">
@@ -4053,10 +4068,10 @@
         <v>319</v>
       </c>
       <c r="Y12" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="Z12" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="11:41">
@@ -4064,10 +4079,10 @@
         <v>320</v>
       </c>
       <c r="Y13" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="Z13" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="11:41">
@@ -4075,10 +4090,10 @@
         <v>321</v>
       </c>
       <c r="Y14" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="Z14" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="11:41">
@@ -4086,7 +4101,7 @@
         <v>322</v>
       </c>
       <c r="Z15" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="11:41">
@@ -4102,7 +4117,7 @@
         <v>324</v>
       </c>
       <c r="Z17" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="20:26">
@@ -5463,6 +5478,31 @@
     <row r="289" spans="20:20">
       <c r="T289" t="s">
         <v>596</v>
+      </c>
+    </row>
+    <row r="290" spans="20:20">
+      <c r="T290" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="291" spans="20:20">
+      <c r="T291" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="292" spans="20:20">
+      <c r="T292" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="293" spans="20:20">
+      <c r="T293" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="294" spans="20:20">
+      <c r="T294" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
